--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="508">
   <si>
     <t>id</t>
   </si>
@@ -424,1222 +424,1120 @@
     <t>33.124</t>
   </si>
   <si>
-    <t>33.125</t>
-  </si>
-  <si>
-    <t>33.126</t>
-  </si>
-  <si>
-    <t>33.127</t>
-  </si>
-  <si>
-    <t>33.128</t>
-  </si>
-  <si>
-    <t>33.129</t>
-  </si>
-  <si>
-    <t>33.130</t>
-  </si>
-  <si>
-    <t>33.131</t>
-  </si>
-  <si>
-    <t>33.132</t>
-  </si>
-  <si>
-    <t>33.133</t>
-  </si>
-  <si>
-    <t>33.134</t>
-  </si>
-  <si>
-    <t>33.135</t>
-  </si>
-  <si>
-    <t>Что такое аваль</t>
-  </si>
-  <si>
-    <t>Что такое аванс</t>
-  </si>
-  <si>
-    <t>Что такое авизо</t>
-  </si>
-  <si>
-    <t>Что такое активы</t>
-  </si>
-  <si>
-    <t>Что такое акцепт</t>
-  </si>
-  <si>
-    <t>Что такое акциз</t>
-  </si>
-  <si>
-    <t>Что такое акции</t>
-  </si>
-  <si>
-    <t>Что такое аудиторская деятельность</t>
-  </si>
-  <si>
-    <t>Что такое банки-корреспонденты</t>
-  </si>
-  <si>
-    <t>Что такое банковская гарантия</t>
-  </si>
-  <si>
-    <t>Что такое банковский перевод</t>
-  </si>
-  <si>
-    <t>Что такое банкротство</t>
-  </si>
-  <si>
-    <t>Что такое бартерная сделка</t>
-  </si>
-  <si>
-    <t>Что такое безналичные расчеты</t>
-  </si>
-  <si>
-    <t>Что такое биржа товарная</t>
-  </si>
-  <si>
-    <t>Что такое биржа фондовая</t>
-  </si>
-  <si>
-    <t>Что такое бюджет консолидированный</t>
-  </si>
-  <si>
-    <t>Что такое бюджет</t>
-  </si>
-  <si>
-    <t>Что такое бюджета дефицит</t>
-  </si>
-  <si>
-    <t>Что такое бюджета доходы</t>
-  </si>
-  <si>
-    <t>Что такое бюджета профицит</t>
-  </si>
-  <si>
-    <t>Что такое бюджета расходы</t>
-  </si>
-  <si>
-    <t>Что такое бюджетная роспись</t>
-  </si>
-  <si>
-    <t>Что такое бюджетная система Российской Федерации</t>
-  </si>
-  <si>
-    <t>Что такое бюджетная система</t>
-  </si>
-  <si>
-    <t>Что такое бюджетная ссуда</t>
-  </si>
-  <si>
-    <t>Что такое бюджетная структура</t>
-  </si>
-  <si>
-    <t>Что такое бюджетное право Российской Федерации</t>
-  </si>
-  <si>
-    <t>Что такое бюджетное регулирование</t>
-  </si>
-  <si>
-    <t>Что такое бюджетное устройство</t>
-  </si>
-  <si>
-    <t>Что такое бюджетные ассигнования</t>
-  </si>
-  <si>
-    <t>Что такое бюджетный кредит</t>
-  </si>
-  <si>
-    <t>Что такое бюджетный процесс</t>
-  </si>
-  <si>
-    <t>Что такое валюта свободно-конвертируемая</t>
-  </si>
-  <si>
-    <t>Что такое валюта</t>
-  </si>
-  <si>
-    <t>Что такое валютные расчеты</t>
-  </si>
-  <si>
-    <t>Что такое валютный курс</t>
-  </si>
-  <si>
-    <t>Что такое вексель</t>
-  </si>
-  <si>
-    <t>Что такое вексельный кредит</t>
-  </si>
-  <si>
-    <t>Что такое внебюджетные фонды</t>
-  </si>
-  <si>
-    <t>Что такое государственные займы</t>
-  </si>
-  <si>
-    <t>Что такое государственные расходы</t>
-  </si>
-  <si>
-    <t>Что такое государственные финансы</t>
-  </si>
-  <si>
-    <t>Что такое государственный внебюджетный фонд</t>
-  </si>
-  <si>
-    <t>Что такое государственный кредит</t>
-  </si>
-  <si>
-    <t>Что такое девальвация</t>
-  </si>
-  <si>
-    <t>Что такое деноминация</t>
-  </si>
-  <si>
-    <t>Что такое депозитарий</t>
-  </si>
-  <si>
-    <t>Что такое депозитарная деятельность</t>
-  </si>
-  <si>
-    <t>Что такое депорт</t>
-  </si>
-  <si>
-    <t>Что такое дефляция</t>
-  </si>
-  <si>
-    <t>Что такое договор банковского вклада</t>
-  </si>
-  <si>
-    <t>Что такое договор банковского депозита</t>
-  </si>
-  <si>
-    <t>Что такое договор банковского счета</t>
-  </si>
-  <si>
-    <t>Что такое договор государственного займа</t>
-  </si>
-  <si>
-    <t>Что такое договор займа</t>
-  </si>
-  <si>
-    <t>Что такое договор поручительства</t>
-  </si>
-  <si>
-    <t>Что такое долг государственный внешний</t>
-  </si>
-  <si>
-    <t>Что такое долг государственный внутренний</t>
-  </si>
-  <si>
-    <t>Что такое должник, предприятие-должник</t>
-  </si>
-  <si>
-    <t>Что такое дотации</t>
-  </si>
-  <si>
-    <t>Что такое закрепленные доходы</t>
-  </si>
-  <si>
-    <t>Что такое залог</t>
-  </si>
-  <si>
-    <t>Что такое инвестиционный фонд</t>
-  </si>
-  <si>
-    <t>Что такое инвесторы</t>
-  </si>
-  <si>
-    <t>Что такое индоссамент</t>
-  </si>
-  <si>
-    <t>Что такое инкассо</t>
-  </si>
-  <si>
-    <t>Что такое исковая давность</t>
-  </si>
-  <si>
-    <t>Что такое коммерческие банки</t>
-  </si>
-  <si>
-    <t>Что такое коммерческий кредит</t>
-  </si>
-  <si>
-    <t>Что такое конкурсная масса</t>
-  </si>
-  <si>
-    <t>Что такое конкурсное производство</t>
-  </si>
-  <si>
-    <t>Что такое конкурсный кредитор</t>
-  </si>
-  <si>
-    <t>Что такое консигнация</t>
-  </si>
-  <si>
-    <t>Что такое кредитный договор</t>
-  </si>
-  <si>
-    <t>Что такое лизинг</t>
-  </si>
-  <si>
-    <t>Что такое маклер</t>
-  </si>
-  <si>
-    <t>Что такое минимальная бюджетная обеспеченность</t>
-  </si>
-  <si>
-    <t>Что такое минимальные государственные социальные стандарты</t>
-  </si>
-  <si>
-    <t>Что такое налог</t>
-  </si>
-  <si>
-    <t>Что такое налоговые инспекции</t>
-  </si>
-  <si>
-    <t>Что такое недвижимое имущество</t>
-  </si>
-  <si>
-    <t>Что такое недвижимость</t>
-  </si>
-  <si>
-    <t>Что такое недвижимые вещи</t>
-  </si>
-  <si>
-    <t>Что такое неустойка</t>
-  </si>
-  <si>
-    <t>Что такое пеня</t>
-  </si>
-  <si>
-    <t>Что такое штраф</t>
-  </si>
-  <si>
-    <t>Что такое облигации государственные</t>
-  </si>
-  <si>
-    <t>Что такое облигации корпоративные</t>
-  </si>
-  <si>
-    <t>Что такое облигации муниципальные</t>
-  </si>
-  <si>
-    <t>Что такое облигация</t>
-  </si>
-  <si>
-    <t>Что такое обязательства денежные</t>
-  </si>
-  <si>
-    <t>Что такое овердрафт</t>
-  </si>
-  <si>
-    <t>Что такое опцион</t>
-  </si>
-  <si>
-    <t>Что такое опционный заем</t>
-  </si>
-  <si>
-    <t>Что такое оферент</t>
-  </si>
-  <si>
-    <t>Что такое оферта</t>
-  </si>
-  <si>
-    <t>Что такое пассивы</t>
-  </si>
-  <si>
-    <t>Что такое переводной вексель</t>
-  </si>
-  <si>
-    <t>Что такое тратта</t>
-  </si>
-  <si>
-    <t>Что такое платежное поручение</t>
-  </si>
-  <si>
-    <t>Что такое полис</t>
-  </si>
-  <si>
-    <t>Что такое пошлины</t>
-  </si>
-  <si>
-    <t>Что такое предприятие</t>
-  </si>
-  <si>
-    <t>Что такое прибыль от реализации продукции и товаров</t>
-  </si>
-  <si>
-    <t>Что такое убыток от реализации продукции и товаров</t>
-  </si>
-  <si>
-    <t>Что такое простой вексель</t>
-  </si>
-  <si>
-    <t>Что такое соло-вексель</t>
-  </si>
-  <si>
-    <t>Что такое регулирующие доходы</t>
-  </si>
-  <si>
-    <t>Что такое резервы</t>
-  </si>
-  <si>
-    <t>Что такое решение о выпуске ценных бумаг</t>
-  </si>
-  <si>
-    <t>Что такое рубль</t>
-  </si>
-  <si>
-    <t>Что такое рынок ценных бумаг</t>
-  </si>
-  <si>
-    <t>Что такое сберегатели</t>
-  </si>
-  <si>
-    <t>Что такое депозитный сертификат</t>
-  </si>
-  <si>
-    <t>Что такое сберегательный сертификат</t>
-  </si>
-  <si>
-    <t>Что такое сбор</t>
-  </si>
-  <si>
-    <t>Что такое финансовый план</t>
-  </si>
-  <si>
-    <t>Что такое финансоотдача</t>
-  </si>
-  <si>
-    <t>Что такое финансы</t>
-  </si>
-  <si>
-    <t>Что такое фондовая биржа</t>
-  </si>
-  <si>
-    <t>Что такое форфейтинг</t>
-  </si>
-  <si>
-    <t>Что такое фьючерс</t>
-  </si>
-  <si>
-    <t>Что такое фьючерсный контракт</t>
-  </si>
-  <si>
-    <t>Что такое ценная бумага</t>
-  </si>
-  <si>
-    <t>Что такое ценные бумаги именные</t>
-  </si>
-  <si>
-    <t>Что такое ценные бумаги на предъявителя</t>
-  </si>
-  <si>
-    <t>Что такое ценных бумаг обращение</t>
-  </si>
-  <si>
-    <t>Что такое ценных бумаг форма выпуска</t>
-  </si>
-  <si>
-    <t>Что такое центральные банки</t>
-  </si>
-  <si>
-    <t>Что такое чек</t>
-  </si>
-  <si>
-    <t>Что такое эмиссионное право</t>
-  </si>
-  <si>
-    <t>Что такое эмиссия</t>
-  </si>
-  <si>
-    <t>Что такое эмитенты</t>
-  </si>
-  <si>
-    <t>Что такое юридическое лицо</t>
+    <t>Что такое банки-корреспонденты?</t>
+  </si>
+  <si>
+    <t>Что такое центральные банки?</t>
+  </si>
+  <si>
+    <t>Что такое бартерная сделка?</t>
+  </si>
+  <si>
+    <t>Что такое депорт?</t>
+  </si>
+  <si>
+    <t>Что такое дотации?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетная ссуда?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетные ассигнования?</t>
+  </si>
+  <si>
+    <t>Что такое авизо?</t>
+  </si>
+  <si>
+    <t>Что такое рубль?</t>
+  </si>
+  <si>
+    <t>Что такое валюта свободно-конвертируемая?</t>
+  </si>
+  <si>
+    <t>Что такое аваль?</t>
+  </si>
+  <si>
+    <t>Что такое переводной вексель?</t>
+  </si>
+  <si>
+    <t>Что такое простой вексель?</t>
+  </si>
+  <si>
+    <t>Что такое эмиссия?</t>
+  </si>
+  <si>
+    <t>Что такое муниципальные облигации?</t>
+  </si>
+  <si>
+    <t>Что такое минимальные государственные социальные стандарты?</t>
+  </si>
+  <si>
+    <t>Что такое залог?</t>
+  </si>
+  <si>
+    <t>Что такое валюта?</t>
+  </si>
+  <si>
+    <t>Что такое аванс?</t>
+  </si>
+  <si>
+    <t>Что такое государственные финансы?</t>
+  </si>
+  <si>
+    <t>Что такое государственный кредит?</t>
+  </si>
+  <si>
+    <t>Что такое бюджета расходы?</t>
+  </si>
+  <si>
+    <t>Что такое бюджета доходы?</t>
+  </si>
+  <si>
+    <t>Что такое пошлины?</t>
+  </si>
+  <si>
+    <t>Что такое аудиторская деятельность?</t>
+  </si>
+  <si>
+    <t>Что такое кредитный договор?</t>
+  </si>
+  <si>
+    <t>Что такое договор банковского счета?</t>
+  </si>
+  <si>
+    <t>Что такое договор государственного займа?</t>
+  </si>
+  <si>
+    <t>Что такое договор банковского вклада?</t>
+  </si>
+  <si>
+    <t>Что такое договор займа?</t>
+  </si>
+  <si>
+    <t>Что такое договор поручительства?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетная роспись?</t>
+  </si>
+  <si>
+    <t>Что такое полис?</t>
+  </si>
+  <si>
+    <t>Что такое ценная бумага?</t>
+  </si>
+  <si>
+    <t>Что такое закрепленные доходы?</t>
+  </si>
+  <si>
+    <t>Что такое регулирующие доходы?</t>
+  </si>
+  <si>
+    <t>Что такое опционный заем?</t>
+  </si>
+  <si>
+    <t>Что такое ценных бумаг обращение?</t>
+  </si>
+  <si>
+    <t>Что такое недвижимые вещи?</t>
+  </si>
+  <si>
+    <t>Что такое дефляция?</t>
+  </si>
+  <si>
+    <t>Что такое предприятие?</t>
+  </si>
+  <si>
+    <t>Что такое конкурсная масса?</t>
+  </si>
+  <si>
+    <t>Что такое активы?</t>
+  </si>
+  <si>
+    <t>Что такое финансоотдача?</t>
+  </si>
+  <si>
+    <t>Что такое акциз?</t>
+  </si>
+  <si>
+    <t>Что такое вексельный кредит?</t>
+  </si>
+  <si>
+    <t>Что такое коммерческий кредит?</t>
+  </si>
+  <si>
+    <t>Что такое государственные займы?</t>
+  </si>
+  <si>
+    <t>Что такое оферент?</t>
+  </si>
+  <si>
+    <t>Что такое минимальная бюджетная обеспеченность?</t>
+  </si>
+  <si>
+    <t>Что такое банкротство?</t>
+  </si>
+  <si>
+    <t>Что такое сбор?</t>
+  </si>
+  <si>
+    <t>Что такое налог?</t>
+  </si>
+  <si>
+    <t>Что такое пассивы?</t>
+  </si>
+  <si>
+    <t>Что такое неустойка?</t>
+  </si>
+  <si>
+    <t>Что такое прибыль от реализации продукции и товаров?</t>
+  </si>
+  <si>
+    <t>Что такое депозитарий?</t>
+  </si>
+  <si>
+    <t>Что такое юридическое лицо?</t>
+  </si>
+  <si>
+    <t>Что такое налоговые инспекции?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетная система Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетная система?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетная структура?</t>
+  </si>
+  <si>
+    <t>Что такое овердрафт?</t>
+  </si>
+  <si>
+    <t>Что такое банковская гарантия?</t>
+  </si>
+  <si>
+    <t>Что такое решение о выпуске ценных бумаг?</t>
+  </si>
+  <si>
+    <t>Что такое девальвация?</t>
+  </si>
+  <si>
+    <t>Что такое банковский перевод?</t>
+  </si>
+  <si>
+    <t>Что такое платежное поручение?</t>
+  </si>
+  <si>
+    <t>Что такое маклер?</t>
+  </si>
+  <si>
+    <t>Что такое инвестиционный фонд?</t>
+  </si>
+  <si>
+    <t>Что такое опцион?</t>
+  </si>
+  <si>
+    <t>Что такое бюджета профицит?</t>
+  </si>
+  <si>
+    <t>Что такое бюджета дефицит?</t>
+  </si>
+  <si>
+    <t>Что такое депозитарная деятельность?</t>
+  </si>
+  <si>
+    <t>Что такое должник, предприятие-должник?</t>
+  </si>
+  <si>
+    <t>Что такое лизинг?</t>
+  </si>
+  <si>
+    <t>Что такое конкурсное производство?</t>
+  </si>
+  <si>
+    <t>Что такое безналичные расчеты?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетный процесс?</t>
+  </si>
+  <si>
+    <t>Что такое бюджет консолидированный?</t>
+  </si>
+  <si>
+    <t>Что такое валютные расчеты?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетное регулирование?</t>
+  </si>
+  <si>
+    <t>Что такое финансовый план?</t>
+  </si>
+  <si>
+    <t>Что такое финансы?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетное право Российской Федерации?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетное устройство?</t>
+  </si>
+  <si>
+    <t>Что такое эмиссионное право?</t>
+  </si>
+  <si>
+    <t>Что такое акцепт?</t>
+  </si>
+  <si>
+    <t>Что такое фондовая биржа?</t>
+  </si>
+  <si>
+    <t>Что такое внебюджетные фонды?</t>
+  </si>
+  <si>
+    <t>Что такое консигнация?</t>
+  </si>
+  <si>
+    <t>Что такое исковая давность?</t>
+  </si>
+  <si>
+    <t>Что такое фьючерс?</t>
+  </si>
+  <si>
+    <t>Что такое инвесторы?</t>
+  </si>
+  <si>
+    <t>Что такое индоссамент?</t>
+  </si>
+  <si>
+    <t>Что такое форфейтинг?</t>
+  </si>
+  <si>
+    <t>Что такое деноминация?</t>
+  </si>
+  <si>
+    <t>Что такое конкурсный кредитор?</t>
+  </si>
+  <si>
+    <t>Что такое ценных бумаг форма выпуска?</t>
+  </si>
+  <si>
+    <t>Что такое государственный внебюджетный фонд?</t>
+  </si>
+  <si>
+    <t>Что такое бюджет?</t>
+  </si>
+  <si>
+    <t>Что такое инкассо?</t>
+  </si>
+  <si>
+    <t>Что такое бюджетный кредит?</t>
+  </si>
+  <si>
+    <t>Что такое оферта?</t>
+  </si>
+  <si>
+    <t>Что такое валютный курс?</t>
+  </si>
+  <si>
+    <t>Что такое облигация?</t>
+  </si>
+  <si>
+    <t>Что такое сберегательный сертификат?</t>
+  </si>
+  <si>
+    <t>Что такое чек?</t>
+  </si>
+  <si>
+    <t>Что такое вексель?</t>
+  </si>
+  <si>
+    <t>Что такое акции?</t>
+  </si>
+  <si>
+    <t>Что такое ценные бумаги на предъявителя?</t>
+  </si>
+  <si>
+    <t>Что такое коммерческие банки?</t>
+  </si>
+  <si>
+    <t>Что такое рынок ценных бумаг?</t>
+  </si>
+  <si>
+    <t>Что такое государственные расходы?</t>
+  </si>
+  <si>
+    <t>Что такое резервы?</t>
+  </si>
+  <si>
+    <t>Что такое сберегатели?</t>
+  </si>
+  <si>
+    <t>Что такое эмитенты?</t>
+  </si>
+  <si>
+    <t>Что такое государственный внешний долг?</t>
+  </si>
+  <si>
+    <t>Что такое государственный внутренний долг?</t>
+  </si>
+  <si>
+    <t>Что такое денежные обязательства?</t>
+  </si>
+  <si>
+    <t>Что такое товарная биржа?</t>
+  </si>
+  <si>
+    <t>Что такое корпоративные облигации?</t>
+  </si>
+  <si>
+    <t>Что такое именные ценные бумаги?</t>
+  </si>
+  <si>
+    <t>Что такое государственные облигации?</t>
+  </si>
+  <si>
+    <t>Банки-корреспонденты – это банки, выполняющие на основе корреспондентского договора поручения друг друга по платежам и расчетам через специально открытые счета или через счета банков корреспондентов в третьем банке.</t>
+  </si>
+  <si>
+    <t>Центральные банки – это банки, осуществляющие выпуск банкнот и являющиеся центрами кредитной системы. Они занимают в ней особое место и являются, как правило, государственными учреждениями.</t>
+  </si>
+  <si>
+    <t>Бартерная сделка – это безвалютный, но оцененный и сбалансированный обмен товарами, оформляемый единым договором (контрактом).</t>
+  </si>
+  <si>
+    <t>Депорт – это биржевая сделка на срок, заключаемая на фондовой бирже в расчете на понижение курса ценных бумаг с целью получения курсовой разницы.</t>
+  </si>
+  <si>
+    <t>Дотации – это бюджетные средства, предоставляемые бюджету другого уровня бюджетной системы Российской Федерации на безвозмездной и безвозвратной основах для покрытия текущих расходов.</t>
+  </si>
+  <si>
+    <t>Бюджетная ссуда – это бюджетные средства, предоставляемые другому бюджету на возвратной, безвозмездной или возмездной основах на срок не более шести месяцев в пределах финансового года.</t>
+  </si>
+  <si>
+    <t>Бюджетные ассигнования – это бюджетные средства, предусмотренные бюджетной росписью получателю или распорядителю бюджетных средств.</t>
+  </si>
+  <si>
+    <t>Авизо – это в банковской, коммерческой, бухгалтерской практике - извещение, посылаемое одним контрагентом другому, об изменениях в состоянии взаимных расчетов или о переводе денежных сумм, посылке товаров. Авизо, как документ, имеет юридический характер.</t>
+  </si>
+  <si>
+    <t>Рубль – это валюта Российской Федерации, законное платежное средство обязательное к приему по нарицательной стоимости на всей территории Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Валюта свободно-конвертируемая – это валюта, свободно и неограниченно обмениваемая на другие иностранные валюты.</t>
   </si>
   <si>
     <t>Аваль – это вексельное поручительство, в отношении которого применяется вексельное право. Это поручительство означает гарантию полного или частичного платежа по тратте, если должник не выполнил в срок свои обязательства. Аваль дается на лицевой стороне векселя и выражается словами: «Считать за аваль» или всякой другой аналогичной фразой и подписывается авалистом. Аваль дается за любое ответственное по векселю лицо, поэтому авалист должен указать, за кого он дает поручительство. При отсутствии такого указания аваль считается выданным за векселедателя, т.е. не за должника, а за кредитора. Авалист и лицо, за которое он поручается, несут солидарную ответственность. Оплатив вексель, авалист приобретает право обратного требования к тому, за кого он выдал поручительство, а также к тем, кто обязан перед этим лицом.</t>
   </si>
   <si>
+    <t>Переводной вексель (тратта) – это выписывает и подписывает кредитор (трассант). Он со держит приказ должнику (трассату) оплатить в указанный срок обозначенную в векселе сумму третьему лицу (ремитенту).</t>
+  </si>
+  <si>
+    <t>Простой вексель (соло-вексель) – это выписывается и подписывается должником и содержит его безусловное обязательство уплатить кредитору определенную сумму в обусловленный срок и в определенном месте.</t>
+  </si>
+  <si>
+    <t>Эмиссия – это выпуск в обращение денежных знаков. На территории РФ монопольное право выпуска в обращение денежных знаков принадлежит Центральному банку РФ.</t>
+  </si>
+  <si>
+    <t>Муниципальные облигации – это выпускаются с целью мобилизации средств для строительства или ремонта объектов общественного пользования: дорог, мостов, водопроводной системы и т. п. Подразделяются на следующие виды облигации под общее обязательство (подкрепляются добросовестностью эмитента) облигации под доход от проекта (погашаются за счет доходов от проектов для финансирования которых они выпускаются).</t>
+  </si>
+  <si>
+    <t>Минимальные государственные социальные стандарты – это государственные услуги, предоставление которых гражданам на безвозмездной и безвозвратной основах за счет финансирования из бюджетов всех уровней бюджетной системы Российской Федерации и бюджетов государственных внебюджетных фондов гарантируется государством на определенном минимально допустимом уровне на всей территории Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Залог – это гражданско-правовое действие, дающее право кредитору по обеспеченному залогом обязательству (залогодержатель) в случае неисполнения должником этого обязательства получить удовлетворение из стоимости заложенного имущества преимущественно перед другими кредиторами. Залогодержатель имеет право получить на тех же началах удовлетворение из страхового возмещения за утрату или повреждение заложенного имущества, независимо от того, в чью пользу оно застраховано, если только утрата или повреждение не произошли по причинам, за которые залогодержатель отвечает. Залог земельных участков, предприятий, зданий, сооружений, квартир и другого недвижимого имущества (ипотека) регулируется законом об ипотеке. Залог возникает в силу договора. Залог возникает также на основании закона при наступлении указанных в нем обстоятельств.</t>
+  </si>
+  <si>
+    <t>Валюта – это денежная единица, используемая для измерения величины стоимости товаров, понятие «валюта» применяется в значениях: денежная единица данной страны (доллар США, японская иена), денежные знаки иностранных государств, а также кредитные и платежные средства, используемые в международных расчетах, и международная (региональная) денежная расчетная единица и платежное средство (переводной рубль, ЕВРО).</t>
+  </si>
+  <si>
     <t>Аванс – это денежная сумма, выдаваемая в счет предстоящих платежей за материальные ценности, выполненные работы и оказанные услуги.</t>
   </si>
   <si>
-    <t>Авизо – это в банковской, коммерческой, бухгалтерской практике - извещение, посылаемое одним контрагентом другому, об изменениях в состоянии взаимных расчетов или о переводе денежных сумм, посылке товаров. Авизо, как документ, имеет юридический характер.</t>
+    <t>Государственные финансы – это денежные отношения по поводу распределения и перераспределения стоимости общественного продукта и части национального богатства, связанные с формированием финансовых ресурсов в распоряжении государства и его предприятий и использованием государственных средств на затраты по расширению производства, удовлетворение социально-культурных потребностей общества, нужд обороны и управления. Доходы государственного бюджета состоят из многих источников и поступлений. Совокупность всех видов государственных доходов, которая формируется различными методами, составляет систему государственных доходов.</t>
+  </si>
+  <si>
+    <t>Государственный кредит – это денежные отношения, возникающие у государства с юридическими и физическими лицами в связи с мобилизацией временно свободных денежных средств в распоряжение органов государственной власти и их использование на финансирование государственных расходов.</t>
+  </si>
+  <si>
+    <t>Бюджета расходы – это денежные средства, направляемые на финансовое обеспечение задач и функций государства и местного самоуправления.</t>
+  </si>
+  <si>
+    <t>Бюджета доходы – это денежные средства, поступающие в безвозмездном и безвозвратном порядке в соответствии с законодательством Российской Федерации в распоряжение органов государственной власти Российской Федерации, органов государственной власти субъектов Российской Федерации и органов местного самоуправления.</t>
+  </si>
+  <si>
+    <t>Пошлины – это денежные суммы которые взимаются специально уполномоченными учреждениями за совершенные действия в пользу пред приятии или частных лиц.</t>
+  </si>
+  <si>
+    <t>Аудиторская деятельность – это деятельность независимого вневедомственного финансового контроля. Аудит (независимый финансовый контроль) осуществляют специализированные аудиторские фирмы и службы. Контрольные и консультационные услуги аудиторские фирмы оказывают всем предприятиям и организациям на платной основе. Аудиторские фирмы являются независимыми организациями, призванными способствовать повышению качества контроля, его объективности.</t>
+  </si>
+  <si>
+    <t>Кредитный договор – это договор, по которому банк или иная кредитная организация (кредитор) обязуются предоставить денежные средства (кредит) заемщику в размере и на условиях, предусмотренных договором, а заемщик обязуется возвратить полученную денежную сумму и уплатить проценты на нее. Кредитный договор должен быть заключен в письменной форме. Несоблюдение письменной формы влечет недействительность кредитного договора. Такой договор считается ничтожным. Кредитор вправе отказаться от предоставления заемщику предусмотренного кредитным договором кредита полностью или частично при наличии обстоятельств, очевидно свидетельствующих о том, что предоставленная заемщику сумма не будет возвращена в срок. Заемщик вправе отказаться от получения кредита полностью или частично, уведомив об этом кредитора до установленного договором срока его предоставления, если иное не предусмотрено законом, иными правовыми актами или кредитным договором. В случае нарушения заемщиком предусмотренной кредитным договором обязанности целевого использования кредита кредитор вправе также отказаться от дальнейшего кредитования заемщика по договору.</t>
+  </si>
+  <si>
+    <t>Договор банковского счета – это договор, по которому банк обязуется принимать и зачислять поступающие на счет, открытый клиенту (владельцу счета), денежные средства, выполнять распоряжения клиента о перечислении и выдаче соответствующих сумм со счета и проведении других операций по счету. Банк может использовать имеющиеся на счете денежные средства, гарантируя право клиента беспрепятственно распоряжаться этими средствами. Банк не вправе определять и контролировать направления использования денежных средств клиента и устанавливать другие не предусмотренные законом или договором банковского счета ограничения его права распоряжаться денежными средствами по своему усмотрению.</t>
+  </si>
+  <si>
+    <t>Договор государственного займа – это договор, по которому заемщиком выступает Российская Федерация, субъект Российской Федерации, а заимодавцем - гражданин или юридическое лицо. Государственные займы являются добровольными. Договор государственного займа заключается путем приобретения заимодавцем выпущенных государственных облигаций или иных государственных ценных бумаг, удостоверяющих право заимодавца на получение от заемщика предоставленных ему взаймы денежных средств или, в зависимости от условий займа, иного имущества, установленных процентов либо иных имущественных прав в сроки, предусмотренные условиями выпуска займа в обращение. Изменение условий выпущенного в обращение займа не допускается. Правила о договоре государственного займа соответственно применяются к займам, выпускаемым муниципальным образованием.</t>
+  </si>
+  <si>
+    <t>Договор банковского вклада (депозита) – это договор, по которому одна сторона (банк), принявшая поступившую от другой стороны (вкладчика) или поступившую для нее денежную сумму (вклад), обязуется возвратить сумму вклада и выплатить проценты на нее на условиях и в порядке, предусмотренных договором. Договор банковского вклада, в котором вкладчиком является гражданин, признается публичным договором. К отношениям банка и вкладчика по счету, на который внесен вклад, применяются правила о договоре банковского счета, если иное не предусмотрено правилами настоящей главы или не вытекает из существа договора банковского вклада.</t>
+  </si>
+  <si>
+    <t>Договор займа – это договор, по которому одна сторона (заимодавец) передает в собственность другой стороне (заемщику) деньги или другие вещи, определенные родовыми признаками, а заемщик обязуется возвратить заимодавцу такую же сумму денег (сумму займа) или равное количество других полученных им вещей того же рода и качества. Договор займа считается заключенным с момента передачи денег или других вещей. Договор займа между гражданами должен быть заключен в письменной форме, если его сумма превышает не менее чем в десять раз установленный законом минимальный размер оплаты труда, а в случае, когда заимодавцем является юридическое лицо, - независимо от суммы. В подтверждение договора займа и его условий может быть представлена расписка заемщика или иной документ, удостоверяющие передачу ему заимодавцем определенной денежной суммы или определенного количества вещей.</t>
+  </si>
+  <si>
+    <t>Договор поручительства – это договор, по которому поручитель обязывается перед кредитором другого лица отвечать за исполнение последним его обязательства полностью или в части. Договор поручительства может быть заключен также для обеспечения обязательства, которое возникнет в будущем. Договор поручительства должен быть совершен в письменной форме. Несоблюдение письменной формы влечет недействительность договора поручительства. При неисполнении или ненадлежащем исполнении должником обеспеченного поручительством обязательства поручитель и должник отвечают перед кредитором солидарно, если законом или договором поручительства не предусмотрена субсидиарная ответственность поручителя.</t>
+  </si>
+  <si>
+    <t>Бюджетная роспись – это документ о поквартальном распределении доходов и расходов бюджета и поступлений из источников финансирования дефицита бюджета, устанавливающий распределение бюджетных ассигнований между получателями бюджетных средств и составляемый в соответствии с бюджетной классификацией Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Полис – это документ страхового органа подтверждающий наличие заключенной сделки о страховании.</t>
+  </si>
+  <si>
+    <t>Ценная бумага – это документ, удостоверяющий с соблюдением установленной формы и обязательных реквизитов имущественные права, осуществление или передача которых возможны только при его предъявлении. С передачей ценной бумаги переходят все удостоверяемые ею права в совокупности. В случаях, предусмотренных законом, или в установленном' им порядке для осуществления и передачи прав, удостоверенных ценной бумагой, достаточно доказательств их закрепления в специальном реестре (обычном или компьютеризованном). К ценным бумагам относятся государственная облигация, облигация, вексель, чек, депозитный и сберегательный сертификаты, банковская сберегательная книжка на предъявителя, коносамент, акция, приватизационные ценные бумаги и другие документы, которые законами о ценных бумагах или в установленном ими порядке отнесены к числу ценных бумаг. Приобретая ценную бумагу, инвестор может рассчитывать, как минимум, на два вида дохода: инвестиционный и курсовой.</t>
+  </si>
+  <si>
+    <t>Закрепленные доходы – это доходы, которые полностью или частично передаются в определенный вид бюджета.</t>
+  </si>
+  <si>
+    <t>Регулирующие доходы – это доходы, которые предназначены для подкрепления нижестоящего бюджета, соблюдая субординацию. Перечень закрепленных и регулирующих доходов фиксируется специальными налоговыми законодательствами и кодексами.</t>
+  </si>
+  <si>
+    <t>Опционный заем – это заем с опционом форма займа или долгового обязательства при ко тором кредитору в определенных пределах предоставляется право выбора погашения.</t>
+  </si>
+  <si>
+    <t>Ценных бумаг обращение – это заключение гражданско-правовых сделок, влекущих переход права собственности на ценные бумаги.</t>
+  </si>
+  <si>
+    <t>Недвижимые вещи (недвижимое имущество, недвижимость) – это земельные участки участки недр другие объекты и все что прочно связано с землей то есть объекты, перемещения которых без несоразмерного ущерба их назначению невозможно в том числе леса многолетние насаждения здания сооружения. К недвижимым вещам относятся также подлежащие государственной регистрации воздушные и морские суда, суда внутреннего плавания, космические объекты. Законом к недвижимым вещам может быть отнесено и иное имущество.</t>
+  </si>
+  <si>
+    <t>Дефляция – это изъятие государством из обращения части обращающихся избыточных денежных средств с целью снижения инфляции.</t>
+  </si>
+  <si>
+    <t>Предприятие – это имущественный комплекс используемый для осуществления предпринимательской деятельности. В целом предприятие как имущественный комплекс признается недвижимостью. В состав предприятия как имущественного комплекса входят все виды имущества предназначенного для его деятельности включая земельные участки здания сооружения, оборудование инвентарь, сырье продукцию права требования, долги а также права на обо значения, индивидуализирующие предприятие его продукцию, работы и услуги (фирменное на именование, товарные знаки, знаки обслуживания) и другие исключительные права, если иное не предусмотрено законом или договором.</t>
+  </si>
+  <si>
+    <t>Конкурсная масса – это имущество должника, на которое может быть обращено взыскание в процессе конкурсного производства.</t>
   </si>
   <si>
     <t>Активы – это имущество предприятий, в состав которого входят основные средства, другие долгосрочные вложения (включая нематериальные активы), оборотные средства, финансовые активы.</t>
   </si>
   <si>
+    <t>Финансоотдача – это количество прибыли, получаемой на вложенные ресурсы. Основной задачей является снижение финансоемкости и повышение финансоотдачи в общественном производстве. При этом необходимо помнить, что важным резервом роста финансовых ресурсов выступает улучшенная воспроизводственная структура финансовых ресурсов стоимости общественного продукта.</t>
+  </si>
+  <si>
+    <t>Акциз – это косвенный налог, включаемый в цену товара и оплачиваемый покупателем. Законом РФ установлен порядок обложения акцизами реализуемых винно-водочных изделий, этилового спирта и пищевого сырья (кроме отпускаемого для выработки ликероводочных изделий и винодельческой продукции, пива, табачных изделий, шин, легковых автомобилей, грузовых автомобилей грузоподъемностью до 1,25 тонн, ювелирных изделий, бриллиантов, изделий из хрусталя, ковров и ковровых изделий, меховых изделий, а также одежды из натуральной кожи).</t>
+  </si>
+  <si>
+    <t>Вексельный кредит – это кредит, оформляемый путем выставления переводного векселя на импортера, который акцептует его по получении товаросопроводительных и платежных документов.</t>
+  </si>
+  <si>
+    <t>Коммерческий кредит – это кредит, предоставляемый в товарной форме продавцами покупателям в виде отсрочки платежа за проданные товары. Он предоставляется под обязательства должника (покупателя) погасить в определенный срок как сумму основного долга, так и начисляемые проценты. Выделяют пять основных способов предоставления коммерческого кредита: вексельный способ; открытый счет; скидка при условии оплаты в определенный срок; сезонный кредит; консигнация.</t>
+  </si>
+  <si>
+    <t>Государственные займы – это кредитные отношения между государством и юридическими и физическими лицами, в результате которых государство получает определенные суммы денежных средств на определенный срок за определенную плату, осуществляются в виде продажи государственных ценных бумаг, займов внебюджетных фондов и в порядке получения кредитов у банков.</t>
+  </si>
+  <si>
+    <t>Оферент – это лицо выступающее с офертой.</t>
+  </si>
+  <si>
+    <t>Минимальная бюджетная обеспеченность – это минимально допустимая стоимость государственных или муниципальных услуг в денежном выражении, предоставляемых органами государственной власти или органами местного самоуправления в расчете на душу населения за счет средств соответствующих бюджетов.</t>
+  </si>
+  <si>
+    <t>Банкротство – это неспособность должника удовлетворить требования кредиторов по оплате товаров (работ, услуг), включая неспособность обеспечить обязательные платежи в бюджет и во внебюджетные фонды.</t>
+  </si>
+  <si>
+    <t>Сбор – это обязательный взнос взимаемый с организации и физических лиц уплата которого является одним из условий совершения в интересах плательщиков сборов государственными органами, органами местного самоуправления, иными уполномоченными органами и должностных видов ценных бумаг. Участники финансового рынка сберегатели, инвесторы, эмитенты.</t>
+  </si>
+  <si>
+    <t>Налог – это обязательный, индивидуально безвозмездный платеж, взимаемый с организаций и физических лиц в форме отчуждения принадлежащих им на праве собственности, хозяйственного ведения или оперативного управления денежных средств, в целях финансового обеспечения деятельности государства и (или) муниципальных образований. Признаки налога: принудительный характер; безвозмездность; безэквивалентность.</t>
+  </si>
+  <si>
+    <t>Пассивы – это обязательства (за исключением субвенций дотации собственных средств и других источников) предприятия состоящие из заемных и привлеченных средств включая кредиторскую задолженность.</t>
+  </si>
+  <si>
+    <t>Неустойка (штраф, пеня) – это определенная законом или договором денежная сумма которую должник обязан уплатить кредитору в случае неисполнения или ненадлежащего исполнения обязательства, в частности в случае просрочки исполнения. По требованию об уплате неустойки кредитор не обязан доказывать причинение ему убытков. Кредитор не вправе требовать уплаты неустойки если должник не несет ответственности за неисполнение или ненадлежащее исполнение обязательств.</t>
+  </si>
+  <si>
+    <t>Прибыль (убыток) от реализации продукции и товаров – это определяется как разница между выручкой от реализации продукции (работ, услуг) в действующих ценах без налога на добавленную стоимость и акцизов, а также на ее производство и реализацию</t>
+  </si>
+  <si>
+    <t>Депозитарий – это организация, ведущая депозитарную деятельность.</t>
+  </si>
+  <si>
+    <t>Юридическое лицо – это организация, которая имеет в собственности, хозяйственном ведении или оперативном управлении обособленное имущество и отвечает по своим обязательствам этим имуществом, может от своего имени приобретать и осуществлять имущественные и иные неимущественные права, нести обязанности, быть истцом и ответчиком в суде. Юридические лица должны иметь самостоятельный баланс или смету и быть зарегистрированы в качестве юридического лица. Юридическими лицами могут быть организации, преследующие извлечение прибыли в качестве основной цели своей деятельности (коммерческие организации) либо не ставящие извлечение прибыли в качестве такой цели и не распределяющие полученную прибыль между участниками (некоммерческие организации).</t>
+  </si>
+  <si>
+    <t>Налоговые инспекции – это органы оперативного финансового контроля. Возглавляет систему налоговых органов Министерство по налогам и сборам Российской Федерации. Задачами налоговых служб являются: а) контроль за соблюдением законодательства о налогах, обеспечение полноты и своевременности внесения в бюджет налоговых платежей; б) осуществление проверок финансового состояния предприятий и организаций независимо от ведомственной подчиненности и их организационно - правовой формы; в) контроль за правильностью определения налогооблагаемой прибыли (дохода) с целью недопущения ее занижения; г) регистрация всех субъектов, а также реальных и потенциальных объектов налогообложения; д) учет, оценка и реализация конфискованного, бесхозного имущества, имущества, перешедшего государству, кладов. Налоговые инспекции имеют право: получать в организациях различных форм собственности необходимые документы и сведения, за исключением тех, которые составляют коммерческую тайну, определяемую законодательством; контролировать соблюдение законодательства о предпринимательстве граждан; обследовать все помещения, используемые для извлечения доходов; приостанавливать все операции предприятий и граждан в случае непредставления документов; изымать документы, свидетельствующие о сокрытии доходов; применять санкции и штрафы; предъявлять в суд и арбитраж иски о ликвидации предприятий, признании сделок недействительными.</t>
+  </si>
+  <si>
+    <t>Бюджетная система Российской Федерации – это основанная на экономических отношениях и государственном устройстве Российской Федерации, регулируемая нормами права совокупность федерального бюджета, бюджетов субъектов Российской Федерации, местных бюджетов и бюджетов государственных внебюджетных фондов.</t>
+  </si>
+  <si>
+    <t>Бюджетная система – это основанная на экономических отношениях и юридических нормах совокупность всех видов бюджетов в стране, имеющих между собой установленные законом взаимоотношения. Единство бюджетной системы основано на взаимодействии бюджетов всех уровней, осуществляемом через использование регулирующих доходных источников, создание целевых и региональных бюджетных фондов, их частичное перераспределение. Это единство реализуется через единую социально-экономическую, включая налоговую, политику.</t>
+  </si>
+  <si>
+    <t>Бюджетная структура – это основанная на экономических отношениях и юридических нормах совокупность всех видов бюджетов в стране. Главный документ в построении бюджетной системы - Конституция Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Овердрафт – это отрицательный баланс на текущем счете клиента, приобретающий иногда статус кредита, т.е. форма краткосрочного кредита предоставление которого осуществляется списанием средств по счету клиента банком сверх остатка средств на счете, в результате чего образуется дебетовое сальдо. При овердрафте в погашение задолженности направляются все суммы зачисляемые на текущий счет клиента поэтому объем кредита изменяется по мере поступления средств, что отличает овердрафт от обычных ссуд. Проценты взимаются по существующим или согласованным ставкам.</t>
+  </si>
+  <si>
+    <t>Банковская гарантия – это письменное обязательство, даваемое банком или иным кредитным учреждением, или страховой организацией (гарант) по просьбе другого лица (принципал), уплатить кредитору принципала (бенефициару) в соответствии с условиями даваемого гарантом обязательства денежную сумму по представлении бенефициаром письменного требования о ее уплате. Банковская гарантия обеспечивает надлежащее исполнение принципалом его обязательства перед бенефициаром (основного обязательства). За выдачу банковской гарантии принципал уплачивает гаранту вознаграждение. Банковская гарантия вступает в силу со дня ее выдачи, если в гарантии не предусмотрено иное. Предусмотренное банковской гарантией обязательство гаранта перед бенефициаром не зависит в отношениях между ними от того основного обязательства, в обеспечение исполнения которого она выдана, даже если в гарантии содержится ссылка на это обязательство.</t>
+  </si>
+  <si>
+    <t>Решение о выпуске ценных бумаг – это письменный документ, зарегистрированный в органе государственной регистрации и содержащий данные, достаточные для установления объема прав, удостоверенных ценной бумагой.</t>
+  </si>
+  <si>
+    <t>Девальвация – это понижение курса национальной или международной (региональной) денежной единицы по отношению к валютам другой страны. Очень часто девальвация отражает обесценение валютных средств в результате инфляции.</t>
+  </si>
+  <si>
+    <t>Банковский перевод – это поручение одного лица (перевододателя) банку перевести определенную сумму в пользу другого лица (переводополучателя). Банк, принявший поручение на перевод, выполняет его через своего корреспондента.</t>
+  </si>
+  <si>
+    <t>Платежное поручение – это поручение плательщика банку перевести определенную денежную сумму на счет указанного плательщиком лица в этом или в ином банке в срок предусмотренный законом или устанавливаемый в соответствии с ним если более короткий срок не предусмотрен договором банковского счета либо не определяется применяемыми в банковской практике обычаями делового оборота за счет средств находящихся на его счете.</t>
+  </si>
+  <si>
+    <t>Маклер – это посредник при заключении сделок на фондовых и товарных биржах, который действует по поручению клиентов и за их счет.</t>
+  </si>
+  <si>
+    <t>Инвестиционный фонд – это посредник, который путем выпуска ЦБ привлекает приватизационные сертификаты и денежные средства граждан для их последующего инвестирования в объекты приватизации, недвижимость и ЦБ других акционерных обществ. Существуют инвестиционные фонды открытого и закрытого типов. Инвестиционные фонды открытого типа продают свои ЦБ с обязательством выкупать их по первому требованию инвесторов. Инвестиционные фонды закрытого типа осуществляют выпуск своих ЦБ с обязательством выкупать их по окончании срока, на который учреждался фонд.</t>
+  </si>
+  <si>
+    <t>Опцион – это право выбора способа исполнения обязательства предоставляемое одной из сторон договора, его условиями или право отказа от исполнения обязательства при определенных условиях.</t>
+  </si>
+  <si>
+    <t>Бюджета профицит – это превышение доходов бюджета над его расходами.</t>
+  </si>
+  <si>
+    <t>Бюджета дефицит – это превышение расходов бюджета над его доходами.</t>
+  </si>
+  <si>
+    <t>Депозитарная деятельность – это предоставление услуг по хранению (депонированию) ценных бумаг, а также «обслуживание ценных бумаг», т.е. выполнение поручений депонента по реализации прав, удостоверенных ценными бумагами.</t>
+  </si>
+  <si>
+    <t>Должник, предприятие-должник – это предприятие, которое не выполняет или в ближайшее время не сможет выполнить свои обязательства перед кредиторами. Законодательство Российской Федерации ввело понятие несостоятельного должника (банкрота).</t>
+  </si>
+  <si>
+    <t>Лизинг – это представляет собой специальную форму финансовых вложений на приобретение оборудования, товаров длительного пользования или недвижимого имущества. Участниками лизинговых операций являются, как правило, три стороны: предприятие - производитель объекта лизинга; лизинговая компания - арендодатель; а также предприятие - арендатор (лизингополучатель).</t>
+  </si>
+  <si>
+    <t>Конкурсное производство – это процедура, направленная на принудительную или добровольную ликвидацию несостоятельного предприятия (т.е. банкрота).</t>
+  </si>
+  <si>
+    <t>Безналичные расчеты – это расчеты между организациями, производимые путем перечисления банком суммы со счета организации должника на счет организации-кредитора по расчетным документам в безналичном порядке. Платежи могут производиться с согласия (акцепта) плательщика и по его поручению.</t>
+  </si>
+  <si>
+    <t>Бюджетный процесс – это регламентируемая нормами права деятельность органов государственной власти, органов местного самоуправления и участников бюджетного процесса по составлению и рассмотрению проектов бюджетов, проектов бюджетов государственных внебюджетных фондов, утверждению и исполнению бюджетов и бюджетов государственных внебюджетных фондов, а также по контролю за их исполнением.</t>
+  </si>
+  <si>
+    <t>Бюджет консолидированный – это свод бюджетов всех уровней бюджетной системы Российской Федерации на соответствующей территории.</t>
+  </si>
+  <si>
+    <t>Валютные расчеты – это система организации и регулирования платежей по денежным требованиям и обязательствам в иностранной валюте, возникающим при осуществлении внешнеэкономической деятельности. Расчеты могут быть наличные и в кредит, т.е. с рассрочкой платежа. Наличный расчет представляет полную оплату товара до срока или в момент перехода товара или товарораспорядительных документов в распоряжение покупателя. Расчет в кредит или расчет с рассрочкой платежа имеет две формы: коммерческий кредит (кредит экспортера импортеру) к выдача авансов импортером экспортеру.</t>
+  </si>
+  <si>
+    <t>Бюджетное регулирование – это система перераспределения денежных средств, состоящая в передаче части ресурсов вышестоящего бюджета нижестоящему в целях сбалансированности. К механизму регулирования относятся: субсидии; субвенции; регулирующие доходные источники. Бюджетное регулирование является составной частью бюджетного процесса.</t>
+  </si>
+  <si>
+    <t>Финансовый план – это системная совокупность мероприятий материального опосредования функционирования государства. Он составляется на срок от 1 до 5 лет и входит в бюджет. По форме финансовый план представляет собой изложение целей, цифр и организационных предложений на планируемый период. На предприятии планирование основывается на учете закона стоимости и при этом планирование выступает как экономическая категория. Финансовые планы имеют все звенья финансовой системы предприятия и организации, функционирующие на коммерческих началах, составляют балансы доходов и расходов, учреждения, осуществляющие некоммерческую деятельность, - сметы, кооперативные организации, общественные объединения и страховые компании - финансовые планы, органы государственной власти - бюджеты разных уровней. Объектом финансового планирования является финансовая деятельность субъектов хозяйствования и государства, а итоговым результатом - составление финансовых планов, начиная от сметы отдельного учреждения до сводного финансового баланса государства. В каждом плане определяются доходы и расходы на определенный период, связи со звеньями финансовой и кредитной систем (взносы отчислений на социальное страхование, платежи в бюджет, плата за банковский кредит и др.). Финансовые планы имеются у всех звеньев финансовой системы предприятия и организации, функционирующие на коммерческих началах составляют «баланс доходов и расходов», предприятия и организации, функционирующие на некоммерческих началах, составляют «смету», план общественных объединений - «финансовый план», органы государственной власти составляют «бюджет» (разных уровней центральный, местный, субъектов Федерации).</t>
+  </si>
+  <si>
+    <t>Финансы – это совокупность объективно обусловленных экономических отношений, имеющих распределительный характер, денежную форму выражения и материализуемых в денежных доходах и накоплениях, формируемых в руках государства и субъектов хозяйствования для целей расширенного воспроизводства, материального стимулирования работающих, удовлетворение социальных и других потребностей. Условием функционирования финансов является наличие денег, а причиной появления финансов служит потребность субъектов хозяйствования и государства в ресурсах, обеспечивающих их деятельность.</t>
+  </si>
+  <si>
+    <t>Бюджетное право Российской Федерации – это совокупность правовых норм (обязательных правил поведения), разграничивающих сферу различных бюджетов (например, областных, краевых, городских, районных, сельских, поселковых), определяющих полномочия отдельных органов государственной власти в деле издания бюджетного закона, регулирующих порядок подготовки и исполнения этого закона.</t>
+  </si>
+  <si>
+    <t>Бюджетное устройство – это совокупность принципов, на которых основывается организация бюджетной системы.</t>
+  </si>
+  <si>
+    <t>Эмиссионное право – это совокупность юридических норм, регулирующих выпуск денег в обращение.</t>
+  </si>
+  <si>
     <t>Акцепт – это согласие обязанного лица оплатить платежное требование и таким образом произвести предусмотренные контрактом расчеты с поставщиком продукции. Акцептная форма расчетов предполагает предъявление к оплате за поставляемую продукцию платежного требования, выписанного поставщиком товаров.</t>
   </si>
   <si>
-    <t>Акциз – это косвенный налог, включаемый в цену товара и оплачиваемый покупателем. Законом РФ установлен порядок обложения акцизами реализуемых винно-водочных изделий, этилового спирта и пищевого сырья (кроме отпускаемого для выработки ликероводочных изделий и винодельческой продукции, пива, табачных изделий, шин, легковых автомобилей, грузовых автомобилей грузоподъемностью до 1,25 тонн, ювелирных изделий, бриллиантов, изделий из хрусталя, ковров и ковровых изделий, меховых изделий, а также одежды из натуральной кожи).</t>
+    <t>Фондовая биржа – это специализированная организация, объединяющая профессиональных участников рынка ценных бумаг, создающая условия для концентрации спроса и предложения, а также для повышения ликвидности рынка в целом. Биржа - то определенная организация торговли, которая подчиняется специальным правилам и процедурам. В процессе биржевых торговых собраний особыми методами устанавливается рыночная цена (курс) ЦБ, информация о которой наряду со сведениями об объемах совершенных сделок становится достоянием широких слоев инвесторов. В этом отношении биржу можно уподобить чуткому прибору, сигнализирующему о состоянии фондового рынка, а через него - о положении дел в экономике в целом.</t>
+  </si>
+  <si>
+    <t>Внебюджетные фонды – это специфическая форма перераспределения и использования финансовых ресурсов, привлекаемых для финансирования некото- рых общественных потребностей и комплексно используемых на основе организационной самостоятельности фондов.</t>
+  </si>
+  <si>
+    <t>Консигнация – это способ кредитования, при котором розничный торговец может просто получить товарноматериальные ценности без обязательства. Если товары будут проданы, то будет осуществлен и платеж производителю, а если нет, то розничный торговец может вернуть товар производителю без выплаты неустойки. Консигнация обычно применяется при реализации новых, нетипичных товаров, спрос на которые трудно предположить. Примером может служить практика производства и продажи новых учебников для институтов. Книгоиздатели посылают свои книги в книжные магазины при институтах с условием их возврата, если они не будут проданы.</t>
+  </si>
+  <si>
+    <t>Исковая давность – это срок для защиты права по иску лица. право которого нарушено. Общий срок исковой давности установлен в три года. Для отдельных видов требований законом могут устанавливаться специальные сроки исковой давности, сокращенные или более длительные по сравнению с общим сроком. Исковая давность, в частности, не распространяется на требования вкладчиков к банку о выдаче вкладов.</t>
+  </si>
+  <si>
+    <t>Фьючерс, или фьючерсный контракт – это стандартный договор на поставку товара в будущем по цене, определенной сторонами при совершении сделки.</t>
+  </si>
+  <si>
+    <t>Инвесторы – это субъекты хозяйствования (органы государственного управления, направляющие денежные средства на покрытие срочных и длительных потребностей), лица, которым ценные бумаги принадлежат на праве собственности (собственники) или ином вещном праве (владельцы).</t>
+  </si>
+  <si>
+    <t>Индоссамент – это суть его состоит в том, что на оборотной стороне векселя или добавочном листе (аллонже) делается передаточная надпись, посредством которой другому лицу вместе с векселем передается право получения платежа. Лицо, передающее вексель по индоссаменту, называется индоссантом, а получившее - индоссатом. Действие передачи векселя называется индоссированном или индоссацией. Индоссамент может быть совершен в пользу любого лица, в том числе даже в пользу плательщика или векселедателя. Он должен быть простым и ничем не обусловленным. Частичный индоссамент, т.е. передача только части суммы векселя, не допускается. Индоссант отвечает за акцепт и платеж. Он может снять с себя ответственность путем надписи «Без оборота на меня».</t>
+  </si>
+  <si>
+    <t>Форфейтинг – это такая кредитная операция, при которой экспортер, получив от импортера акцептованные последним тратты (переводные векселя), продает их со скидкой банку или специализированной финансовой фирме. При наступлении срока оплаты тратт импортер погашает обычно полугодовыми платежами свою задолженность. Традиционно кредитованием внешнеторговых фирм на базе форфейтинга занимаются обычно крупные банки. Прибегая к форфейтингу, экспортер получает возможность дополнительно мобилизовать средства и сократить дебиторскую задолженность. Экспортер обращается к рынку форфейтинга в том случае, если ему не удается получить гарантию госудаственного института, или его внешнеторговый контракт недостаточно кредитоспособен или его собственное финансовое положение не позволяет надолго отвлекать средства.</t>
+  </si>
+  <si>
+    <t>Деноминация – это укрупнение национальной денежной единицы путем обмена по установленному соотношению старых денежных знаков на новые в целях упорядочения денежного обращения, облегчения учета и расчетов в стране с одновременным пересчетом (в таком же соотношении) цен, тарифов, заработной платы и др.</t>
+  </si>
+  <si>
+    <t>Конкурсный кредитор – это физическое или юридическое лицо, имеющее имущественные требования к должнику и не являющееся носителем залоговых прав.</t>
+  </si>
+  <si>
+    <t>Ценных бумаг форма выпуска – это форма выпуска ценных бумаг, при которой инвестор устанавливается на основании предъявления оформленного надлежащим образом сертификата ценной бумаги или, в случае депонирования такового данного сертификата и записи по счету депо.</t>
+  </si>
+  <si>
+    <t>Государственный внебюджетный фонд – это форма образования и расходования денежных средств, образуемых вне федерального бюджета и бюджетов субъектов Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Бюджет – это форма образования и расходования фонда денежных средств, предназначенных для финансового обеспечения задач и функций государства и местного самоуправления; экономическая категория, представленная денежными отношениями, возникающими у государства с юридическими и физическими лицами по поводу перераспределения национального дохода в связи с образованием и использованием бюджетного фонда страны, предназначенного на финансирование народного хозяйства, социально-культурных нужд, нужд обороны и государственного управления.</t>
+  </si>
+  <si>
+    <t>Инкассо – это форма расчетов, при которой банк (банк-эмитент) обязуется по поручению клиента осуществить за счет клиента действия по получению от плательщика платежа и (или) акцепта платежа. Банк-эмитент, получивший поручение клиента, вправе привлекать для его выполнения иной банк (исполняющий банк). Порядок осуществления расчетов по инкассо регулируется законом, установленными в соответствии с ним банковскими правилами и применяемыми в банковской практике обычаями делового оборота.</t>
+  </si>
+  <si>
+    <t>Бюджетный кредит – это форма финансирования бюджетных расходов, которая предусматривает предоставление средств юридическим лицам на возвратной и возмездной основах.</t>
+  </si>
+  <si>
+    <t>Оферта – это формальное предложение определенному лицу заключить сделку с указанием всех необходимых для ее заключения условий.</t>
+  </si>
+  <si>
+    <t>Валютный курс – это цена денежной единицы данной национальной валюты, выраженная в денежных единицах валюты другой страны.</t>
+  </si>
+  <si>
+    <t>Облигация – это ценная бумага удостоверяющая право ее держателя на получение от лица выпустившего облигацию в предусмотренный ею срок номинальной стоимости облигации или иного имущественного эквивалента. Облигация предоставляет ее держателю также право на по лучение фиксированного в ней процента от номинальной стоимости облигации либо иные имущественные права.</t>
+  </si>
+  <si>
+    <t>Сберегательный (депозитный) сертификат – это ценная бумага удостоверяющая сумму вклада, внесенного в банк и права вкладчика (держателя сертификата) на получение по истечении установленного срока суммы вклада и обусловленных в сертификате процентов в банке, выдавшем сертификат, или в любом филиале этого банка. Депозиты бывают до востребования (дают право на изъятие определенных сумм по предъявлению сертификата) и срочные (на которых указан срок изъятия вклада и размер причитающегося процента).</t>
+  </si>
+  <si>
+    <t>Чек – это ценная бумага, содержащая ничем не обусловленное распоряжение чекодателя банку произвести платеж указанной в нем суммы. В качестве плательщика по чеку может быть указан только банк, где чекодатель имеет средства, которыми он вправе распоряжаться путем выставления чеков. Отзыв чека до истечения срока для его предъявления не допускается. Выдача чека не погашает денежного обязательства, во исполнение которого он выдан. Форма чека и порядок его заполнения определяются законом и установленными в соответствии с ним банковскими правилами.</t>
+  </si>
+  <si>
+    <t>Вексель – это ценная бумага, удостоверяющая ничем не обусловленное обязательство векселедателя (простой вексель) либо иного указанного в векселе плательщика (переводной вексель) выплатить по наступлении предусмотренного векселем срока полученные взаймы денежные суммы, отношения сторон по векселю регулируются законом о переводном и простом векселе. Закон Российской Федерации «О денежной системе Российской Федерации» (ст. 13) считает вексель платежным документом, используемым в безналичных расчетах. Россия придерживается «Единообразного вексельного закона», принятого в 1930 году в Женеве.</t>
   </si>
   <si>
     <t>Акции – это ценные бумаги, выпускаемые акционерными обществами и указывающие на долю владельца (держателя) в капитале данного общества, дающие право их владельцу на получение прибыли в виде дивиденда, а также, в зависимости от типа, способные давать право голоса на общем собрании акционеров (простая именная). Этот вид долевых ценных бумаг не выпускается государственными органами, они эмитируются только промышленными, торговыми и финансовыми корпорациями. Цена, по которой акция реализуется на рынке, называется курсом акции.</t>
   </si>
   <si>
-    <t>Аудиторская деятельность – это деятельность независимого вневедомственного финансового контроля. Аудит (независимый финансовый контроль) осуществляют специализированные аудиторские фирмы и службы. Контрольные и консультационные услуги аудиторские фирмы оказывают всем предприятиям и организациям на платной основе. Аудиторские фирмы являются независимыми организациями, призванными способствовать повышению качества контроля, его объективности.</t>
-  </si>
-  <si>
-    <t>Банки-корреспонденты – это банки, выполняющие на основе корреспондентского договора поручения друг друга по платежам и расчетам через специально открытые счета или через счета банков корреспондентов в третьем банке.</t>
-  </si>
-  <si>
-    <t>Банковская гарантия – это письменное обязательство, даваемое банком или иным кредитным учреждением, или страховой организацией (гарант) по просьбе другого лица (принципал), уплатить кредитору принципала (бенефициару) в соответствии с условиями даваемого гарантом обязательства денежную сумму по представлении бенефициаром письменного требования о ее уплате. Банковская гарантия обеспечивает надлежащее исполнение принципалом его обязательства перед бенефициаром (основного обязательства). За выдачу банковской гарантии принципал уплачивает гаранту вознаграждение. Банковская гарантия вступает в силу со дня ее выдачи, если в гарантии не предусмотрено иное. Предусмотренное банковской гарантией обязательство гаранта перед бенефициаром не зависит в отношениях между ними от того основного обязательства, в обеспечение исполнения которого она выдана, даже если в гарантии содержится ссылка на это обязательство.</t>
-  </si>
-  <si>
-    <t>Банковский перевод – это поручение одного лица (перевододателя) банку перевести определенную сумму в пользу другого лица (переводополучателя). Банк, принявший поручение на перевод, выполняет его через своего корреспондента.</t>
-  </si>
-  <si>
-    <t>Банкротство – это неспособность должника удовлетворить требования кредиторов по оплате товаров (работ, услуг), включая неспособность обеспечить обязательные платежи в бюджет и во внебюджетные фонды.</t>
-  </si>
-  <si>
-    <t>Бартерная сделка – это безвалютный, но оцененный и сбалансированный обмен товарами, оформляемый единым договором (контрактом).</t>
-  </si>
-  <si>
-    <t>Безналичные расчеты – это расчеты между организациями, производимые путем перечисления банком суммы со счета организации должника на счет организации-кредитора по расчетным документам в безналичном порядке. Платежи могут производиться с согласия (акцепта) плательщика и по его поручению.</t>
-  </si>
-  <si>
-    <t>Биржа товарная – это коммерческое предприятие, регулярно функционирующий рынок однородных товаров с определенными характеристиками.</t>
-  </si>
-  <si>
-    <t>Биржа фондовая – это организованный и регулярно функционирующий рынок по купле-продаже ценных бумаг. Основными функциями фондовой биржи являются мобилизация временно свободных денежных средств через продажу ценных бумаг и установление рыночной стоимости ценных бумаг.</t>
-  </si>
-  <si>
-    <t>Бюджет консолидированный – это свод бюджетов всех уровней бюджетной системы Российской Федерации на соответствующей территории.</t>
-  </si>
-  <si>
-    <t>Бюджет – это форма образования и расходования фонда денежных средств, предназначенных для финансового обеспечения задач и функций государства и местного самоуправления; экономическая категория, представленная денежными отношениями, возникающими у государства с юридическими и физическими лицами по поводу перераспределения национального дохода в связи с образованием и использованием бюджетного фонда страны, предназначенного на финансирование народного хозяйства, социально-культурных нужд, нужд обороны и государственного управления.</t>
-  </si>
-  <si>
-    <t>Бюджета дефицит – это превышение расходов бюджета над его доходами.</t>
-  </si>
-  <si>
-    <t>Бюджета доходы – это денежные средства, поступающие в безвозмездном и безвозвратном порядке в соответствии с законодательством Российской Федерации в распоряжение органов государственной власти Российской Федерации, органов государственной власти субъектов Российской Федерации и органов местного самоуправления.</t>
-  </si>
-  <si>
-    <t>Бюджета профицит – это превышение доходов бюджета над его расходами.</t>
-  </si>
-  <si>
-    <t>Бюджета расходы – это денежные средства, направляемые на финансовое обеспечение задач и функций государства и местного самоуправления.</t>
-  </si>
-  <si>
-    <t>Бюджетная роспись – это документ о поквартальном распределении доходов и расходов бюджета и поступлений из источников финансирования дефицита бюджета, устанавливающий распределение бюджетных ассигнований между получателями бюджетных средств и составляемый в соответствии с бюджетной классификацией Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Бюджетная система Российской Федерации – это основанная на экономических отношениях и государственном устройстве Российской Федерации, регулируемая нормами права совокупность федерального бюджета, бюджетов субъектов Российской Федерации, местных бюджетов и бюджетов государственных внебюджетных фондов.</t>
-  </si>
-  <si>
-    <t>Бюджетная система – это основанная на экономических отношениях и юридических нормах совокупность всех видов бюджетов в стране, имеющих между собой установленные законом взаимоотношения. Единство бюджетной системы основано на взаимодействии бюджетов всех уровней, осуществляемом через использование регулирующих доходных источников, создание целевых и региональных бюджетных фондов, их частичное перераспределение. Это единство реализуется через единую социально-экономическую, включая налоговую, политику.</t>
-  </si>
-  <si>
-    <t>Бюджетная ссуда – это бюджетные средства, предоставляемые другому бюджету на возвратной, безвозмездной или возмездной основах на срок не более шести месяцев в пределах финансового года.</t>
-  </si>
-  <si>
-    <t>Бюджетная структура – это основанная на экономических отношениях и юридических нормах совокупность всех видов бюджетов в стране. Главный документ в построении бюджетной системы - Конституция Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Бюджетное право Российской Федерации – это совокупность правовых норм (обязательных правил поведения), разграничивающих сферу различных бюджетов (например, областных, краевых, городских, районных, сельских, поселковых), определяющих полномочия отдельных органов государственной власти в деле издания бюджетного закона, регулирующих порядок подготовки и исполнения этого закона.</t>
-  </si>
-  <si>
-    <t>Бюджетное регулирование – это система перераспределения денежных средств, состоящая в передаче части ресурсов вышестоящего бюджета нижестоящему в целях сбалансированности. К механизму регулирования относятся: субсидии; субвенции; регулирующие доходные источники. Бюджетное регулирование является составной частью бюджетного процесса.</t>
-  </si>
-  <si>
-    <t>Бюджетное устройство – это совокупность принципов, на которых основывается организация бюджетной системы.</t>
-  </si>
-  <si>
-    <t>Бюджетные ассигнования – это бюджетные средства, предусмотренные бюджетной росписью получателю или распорядителю бюджетных средств.</t>
-  </si>
-  <si>
-    <t>Бюджетный кредит – это форма финансирования бюджетных расходов, которая предусматривает предоставление средств юридическим лицам на возвратной и возмездной основах.</t>
-  </si>
-  <si>
-    <t>Бюджетный процесс – это регламентируемая нормами права деятельность органов государственной власти, органов местного самоуправления и участников бюджетного процесса по составлению и рассмотрению проектов бюджетов, проектов бюджетов государственных внебюджетных фондов, утверждению и исполнению бюджетов и бюджетов государственных внебюджетных фондов, а также по контролю за их исполнением.</t>
-  </si>
-  <si>
-    <t>Валюта свободно-конвертируемая – это валюта, свободно и неограниченно обмениваемая на другие иностранные валюты.</t>
-  </si>
-  <si>
-    <t>Валюта – это денежная единица, используемая для измерения величины стоимости товаров, понятие «валюта» применяется в значениях: денежная единица данной страны (доллар США, японская иена), денежные знаки иностранных государств, а также кредитные и платежные средства, используемые в международных расчетах, и международная (региональная) денежная расчетная единица и платежное средство (переводной рубль, ЕВРО).</t>
-  </si>
-  <si>
-    <t>Валютные расчеты – это система организации и регулирования платежей по денежным требованиям и обязательствам в иностранной валюте, возникающим при осуществлении внешнеэкономической деятельности. Расчеты могут быть наличные и в кредит, т.е. с рассрочкой платежа. Наличный расчет представляет полную оплату товара до срока или в момент перехода товара или товарораспорядительных документов в распоряжение покупателя. Расчет в кредит или расчет с рассрочкой платежа имеет две формы: коммерческий кредит (кредит экспортера импортеру) к выдача авансов импортером экспортеру.</t>
-  </si>
-  <si>
-    <t>Валютный курс – это цена денежной единицы данной национальной валюты, выраженная в денежных единицах валюты другой страны.</t>
-  </si>
-  <si>
-    <t>Вексель – это ценная бумага, удостоверяющая ничем не обусловленное обязательство векселедателя (простой вексель) либо иного указанного в векселе плательщика (переводной вексель) выплатить по наступлении предусмотренного векселем срока полученные взаймы денежные суммы, отношения сторон по векселю регулируются законом о переводном и простом векселе. Закон Российской Федерации «О денежной системе Российской Федерации» (ст. 13) считает вексель платежным документом, используемым в безналичных расчетах. Россия придерживается «Единообразного вексельного закона», принятого в 1930 году в Женеве.</t>
-  </si>
-  <si>
-    <t>Вексельный кредит – это кредит, оформляемый путем выставления переводного векселя на импортера, который акцептует его по получении товаросопроводительных и платежных документов.</t>
-  </si>
-  <si>
-    <t>Внебюджетные фонды – это специфическая форма перераспределения и использования финансовых ресурсов, привлекаемых для финансирования некото- рых общественных потребностей и комплексно используемых на основе организационной самостоятельности фондов.</t>
-  </si>
-  <si>
-    <t>Государственные займы – это кредитные отношения между государством и юридическими и физическими лицами, в результате которых государство получает определенные суммы денежных средств на определенный срок за определенную плату, осуществляются в виде продажи государственных ценных бумаг, займов внебюджетных фондов и в порядке получения кредитов у банков.</t>
+    <t>Ценные бумаги на предъявителя – это ценные бумаги, переход прав на которые и осуществление удостоверенных ими прав не требует обязательной идентификации имени инвестора.</t>
+  </si>
+  <si>
+    <t>Коммерческие банки – это частные и государственные банки, осуществляющие универсальные операции по кредитованию промышленных, торговых и других предприятий, главным образом за счет тех денежных капиталов, которые они получают в виде вкладов.</t>
+  </si>
+  <si>
+    <t>Рынок ценных бумаг – это часть рынка ссудных капиталов где осуществляется эмиссия и купля-продажа ценных бумаг. Через рынок ценных бумаг (банки, специальные кредитные институты и фондовая биржа) аккумулируются де нежные накопления юридических, физических лиц и государства и направляются на производственное и непроизводственное вложение капиталов. Различают первичный рынок ценных бумаг где осуществляется эмиссия и первичное размещение ценных бумаг и вторичный где производится купля продажа (обращение) ранее выпущенных ценных бумаг.</t>
   </si>
   <si>
     <t>Государственные расходы – это часть финансовых отношений, которая обусловлена использованием доходов государства в связи с осуществлением своих функций: охранная; оборонная; внешнеэкономические отношения; социальная; управленческая.</t>
   </si>
   <si>
-    <t>Государственные финансы – это денежные отношения по поводу распределения и перераспределения стоимости общественного продукта и части национального богатства, связанные с формированием финансовых ресурсов в распоряжении государства и его предприятий и использованием государственных средств на затраты по расширению производства, удовлетворение социально-культурных потребностей общества, нужд обороны и управления. Доходы государственного бюджета состоят из многих источников и поступлений. Совокупность всех видов государственных доходов, которая формируется различными методами, составляет систему государственных доходов.</t>
-  </si>
-  <si>
-    <t>Государственный внебюджетный фонд – это форма образования и расходования денежных средств, образуемых вне федерального бюджета и бюджетов субъектов Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Государственный кредит – это денежные отношения, возникающие у государства с юридическими и физическими лицами в связи с мобилизацией временно свободных денежных средств в распоряжение органов государственной власти и их использование на финансирование государственных расходов.</t>
-  </si>
-  <si>
-    <t>Девальвация – это понижение курса национальной или международной (региональной) денежной единицы по отношению к валютам другой страны. Очень часто девальвация отражает обесценение валютных средств в результате инфляции.</t>
-  </si>
-  <si>
-    <t>Деноминация – это укрупнение национальной денежной единицы путем обмена по установленному соотношению старых денежных знаков на новые в целях упорядочения денежного обращения, облегчения учета и расчетов в стране с одновременным пересчетом (в таком же соотношении) цен, тарифов, заработной платы и др.</t>
-  </si>
-  <si>
-    <t>Депозитарий – это организация, ведущая депозитарную деятельность.</t>
-  </si>
-  <si>
-    <t>Депозитарная деятельность – это предоставление услуг по хранению (депонированию) ценных бумаг, а также «обслуживание ценных бумаг», т.е. выполнение поручений депонента по реализации прав, удостоверенных ценными бумагами.</t>
-  </si>
-  <si>
-    <t>Депорт – это биржевая сделка на срок, заключаемая на фондовой бирже в расчете на понижение курса ценных бумаг с целью получения курсовой разницы.</t>
-  </si>
-  <si>
-    <t>Дефляция – это изъятие государством из обращения части обращающихся избыточных денежных средств с целью снижения инфляции.</t>
-  </si>
-  <si>
-    <t>Договор банковского вклада (депозита) – это договор, по которому одна сторона (банк), принявшая поступившую от другой стороны (вкладчика) или поступившую для нее денежную сумму (вклад), обязуется возвратить сумму вклада и выплатить проценты на нее на условиях и в порядке, предусмотренных договором. Договор банковского вклада, в котором вкладчиком является гражданин, признается публичным договором. К отношениям банка и вкладчика по счету, на который внесен вклад, применяются правила о договоре банковского счета, если иное не предусмотрено правилами настоящей главы или не вытекает из существа договора банковского вклада.</t>
-  </si>
-  <si>
-    <t>Договор банковского счета – это договор, по которому банк обязуется принимать и зачислять поступающие на счет, открытый клиенту (владельцу счета), денежные средства, выполнять распоряжения клиента о перечислении и выдаче соответствующих сумм со счета и проведении других операций по счету. Банк может использовать имеющиеся на счете денежные средства, гарантируя право клиента беспрепятственно распоряжаться этими средствами. Банк не вправе определять и контролировать направления использования денежных средств клиента и устанавливать другие не предусмотренные законом или договором банковского счета ограничения его права распоряжаться денежными средствами по своему усмотрению.</t>
-  </si>
-  <si>
-    <t>Договор государственного займа – это договор, по которому заемщиком выступает Российская Федерация, субъект Российской Федерации, а заимодавцем - гражданин или юридическое лицо. Государственные займы являются добровольными. Договор государственного займа заключается путем приобретения заимодавцем выпущенных государственных облигаций или иных государственных ценных бумаг, удостоверяющих право заимодавца на получение от заемщика предоставленных ему взаймы денежных средств или, в зависимости от условий займа, иного имущества, установленных процентов либо иных имущественных прав в сроки, предусмотренные условиями выпуска займа в обращение. Изменение условий выпущенного в обращение займа не допускается. Правила о договоре государственного займа соответственно применяются к займам, выпускаемым муниципальным образованием.</t>
-  </si>
-  <si>
-    <t>Договор займа – это договор, по которому одна сторона (заимодавец) передает в собственность другой стороне (заемщику) деньги или другие вещи, определенные родовыми признаками, а заемщик обязуется возвратить заимодавцу такую же сумму денег (сумму займа) или равное количество других полученных им вещей того же рода и качества. Договор займа считается заключенным с момента передачи денег или других вещей. Договор займа между гражданами должен быть заключен в письменной форме, если его сумма превышает не менее чем в десять раз установленный законом минимальный размер оплаты труда, а в случае, когда заимодавцем является юридическое лицо, - независимо от суммы. В подтверждение договора займа и его условий может быть представлена расписка заемщика или иной документ, удостоверяющие передачу ему заимодавцем определенной денежной суммы или определенного количества вещей.</t>
-  </si>
-  <si>
-    <t>Договор поручительства – это договор, по которому поручитель обязывается перед кредитором другого лица отвечать за исполнение последним его обязательства полностью или в части. Договор поручительства может быть заключен также для обеспечения обязательства, которое возникнет в будущем. Договор поручительства должен быть совершен в письменной форме. Несоблюдение письменной формы влечет недействительность договора поручительства. При неисполнении или ненадлежащем исполнении должником обеспеченного поручительством обязательства поручитель и должник отвечают перед кредитором солидарно, если законом или договором поручительства не предусмотрена субсидиарная ответственность поручителя.</t>
-  </si>
-  <si>
-    <t>Долг государственный внешний – это долговые обязательства Правительства Российской Федерации перед иностранными государствами или международными организациями, выраженные в иностранной валюте.</t>
-  </si>
-  <si>
-    <t>Долг государственный внутренний – это долговые обязательства Правительства Российской Федерации, выраженные в валюте Российской Федерации, перед юридическими и физическими лицами, если иное не установлено нормативными актами Российской Федерации. Юридическими формами долговых обязательств являются кредиты, полученные правительством, государственные займы, полученные посредством выпуска ценных бумаг от имени Правительства Российской Федерации, других долговых обязательств, гарантированных Правительством Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Должник, предприятие-должник – это предприятие, которое не выполняет или в ближайшее время не сможет выполнить свои обязательства перед кредиторами. Законодательство Российской Федерации ввело понятие несостоятельного должника (банкрота).</t>
-  </si>
-  <si>
-    <t>Дотации – это бюджетные средства, предоставляемые бюджету другого уровня бюджетной системы Российской Федерации на безвозмездной и безвозвратной основах для покрытия текущих расходов.</t>
-  </si>
-  <si>
-    <t>Закрепленные доходы – это доходы, которые полностью или частично передаются в определенный вид бюджета.</t>
-  </si>
-  <si>
-    <t>Залог – это гражданско-правовое действие, дающее право кредитору по обеспеченному залогом обязательству (залогодержатель) в случае неисполнения должником этого обязательства получить удовлетворение из стоимости заложенного имущества преимущественно перед другими кредиторами. Залогодержатель имеет право получить на тех же началах удовлетворение из страхового возмещения за утрату или повреждение заложенного имущества, независимо от того, в чью пользу оно застраховано, если только утрата или повреждение не произошли по причинам, за которые залогодержатель отвечает. Залог земельных участков, предприятий, зданий, сооружений, квартир и другого недвижимого имущества (ипотека) регулируется законом об ипотеке. Залог возникает в силу договора. Залог возникает также на основании закона при наступлении указанных в нем обстоятельств.</t>
-  </si>
-  <si>
-    <t>Инвестиционный фонд – это посредник, который путем выпуска ЦБ привлекает приватизационные сертификаты и денежные средства граждан для их последующего инвестирования в объекты приватизации, недвижимость и ЦБ других акционерных обществ. Существуют инвестиционные фонды открытого и закрытого типов. Инвестиционные фонды открытого типа продают свои ЦБ с обязательством выкупать их по первому требованию инвесторов. Инвестиционные фонды закрытого типа осуществляют выпуск своих ЦБ с обязательством выкупать их по окончании срока, на который учреждался фонд.</t>
-  </si>
-  <si>
-    <t>Инвесторы – это субъекты хозяйствования (органы государственного управления, направляющие денежные средства на покрытие срочных и длительных потребностей), лица, которым ценные бумаги принадлежат на праве собственности (собственники) или ином вещном праве (владельцы).</t>
-  </si>
-  <si>
-    <t>Индоссамент – это суть его состоит в том, что на оборотной стороне векселя или добавочном листе (аллонже) делается передаточная надпись, посредством которой другому лицу вместе с векселем передается право получения платежа. Лицо, передающее вексель по индоссаменту, называется индоссантом, а получившее - индоссатом. Действие передачи векселя называется индоссированном или индоссацией. Индоссамент может быть совершен в пользу любого лица, в том числе даже в пользу плательщика или векселедателя. Он должен быть простым и ничем не обусловленным. Частичный индоссамент, т.е. передача только части суммы векселя, не допускается. Индоссант отвечает за акцепт и платеж. Он может снять с себя ответственность путем надписи «Без оборота на меня».</t>
-  </si>
-  <si>
-    <t>Инкассо – это форма расчетов, при которой банк (банк-эмитент) обязуется по поручению клиента осуществить за счет клиента действия по получению от плательщика платежа и (или) акцепта платежа. Банк-эмитент, получивший поручение клиента, вправе привлекать для его выполнения иной банк (исполняющий банк). Порядок осуществления расчетов по инкассо регулируется законом, установленными в соответствии с ним банковскими правилами и применяемыми в банковской практике обычаями делового оборота.</t>
-  </si>
-  <si>
-    <t>Исковая давность – это срок для защиты права по иску лица. право которого нарушено. Общий срок исковой давности установлен в три года. Для отдельных видов требований законом могут устанавливаться специальные сроки исковой давности, сокращенные или более длительные по сравнению с общим сроком. Исковая давность, в частности, не распространяется на требования вкладчиков к банку о выдаче вкладов.</t>
-  </si>
-  <si>
-    <t>Коммерческие банки – это частные и государственные банки, осуществляющие универсальные операции по кредитованию промышленных, торговых и других предприятий, главным образом за счет тех денежных капиталов, которые они получают в виде вкладов.</t>
-  </si>
-  <si>
-    <t>Коммерческий кредит – это кредит, предоставляемый в товарной форме продавцами покупателям в виде отсрочки платежа за проданные товары. Он предоставляется под обязательства должника (покупателя) погасить в определенный срок как сумму основного долга, так и начисляемые проценты. Выделяют пять основных способов предоставления коммерческого кредита: вексельный способ; открытый счет; скидка при условии оплаты в определенный срок; сезонный кредит; консигнация.</t>
-  </si>
-  <si>
-    <t>Конкурсная масса – это имущество должника, на которое может быть обращено взыскание в процессе конкурсного производства.</t>
-  </si>
-  <si>
-    <t>Конкурсное производство – это процедура, направленная на принудительную или добровольную ликвидацию несостоятельного предприятия (т.е. банкрота).</t>
-  </si>
-  <si>
-    <t>Конкурсный кредитор – это физическое или юридическое лицо, имеющее имущественные требования к должнику и не являющееся носителем залоговых прав.</t>
-  </si>
-  <si>
-    <t>Консигнация – это способ кредитования, при котором розничный торговец может просто получить товарноматериальные ценности без обязательства. Если товары будут проданы, то будет осуществлен и платеж производителю, а если нет, то розничный торговец может вернуть товар производителю без выплаты неустойки. Консигнация обычно применяется при реализации новых, нетипичных товаров, спрос на которые трудно предположить. Примером может служить практика производства и продажи новых учебников для институтов. Книгоиздатели посылают свои книги в книжные магазины при институтах с условием их возврата, если они не будут проданы.</t>
-  </si>
-  <si>
-    <t>Кредитный договор – это договор, по которому банк или иная кредитная организация (кредитор) обязуются предоставить денежные средства (кредит) заемщику в размере и на условиях, предусмотренных договором, а заемщик обязуется возвратить полученную денежную сумму и уплатить проценты на нее. Кредитный договор должен быть заключен в письменной форме. Несоблюдение письменной формы влечет недействительность кредитного договора. Такой договор считается ничтожным. Кредитор вправе отказаться от предоставления заемщику предусмотренного кредитным договором кредита полностью или частично при наличии обстоятельств, очевидно свидетельствующих о том, что предоставленная заемщику сумма не будет возвращена в срок. Заемщик вправе отказаться от получения кредита полностью или частично, уведомив об этом кредитора до установленного договором срока его предоставления, если иное не предусмотрено законом, иными правовыми актами или кредитным договором. В случае нарушения заемщиком предусмотренной кредитным договором обязанности целевого использования кредита кредитор вправе также отказаться от дальнейшего кредитования заемщика по договору.</t>
-  </si>
-  <si>
-    <t>Лизинг – это представляет собой специальную форму финансовых вложений на приобретение оборудования, товаров длительного пользования или недвижимого имущества. Участниками лизинговых операций являются, как правило, три стороны: предприятие - производитель объекта лизинга; лизинговая компания - арендодатель; а также предприятие - арендатор (лизингополучатель).</t>
-  </si>
-  <si>
-    <t>Маклер – это посредник при заключении сделок на фондовых и товарных биржах, который действует по поручению клиентов и за их счет.</t>
-  </si>
-  <si>
-    <t>Минимальная бюджетная обеспеченность – это минимально допустимая стоимость государственных или муниципальных услуг в денежном выражении, предоставляемых органами государственной власти или органами местного самоуправления в расчете на душу населения за счет средств соответствующих бюджетов.</t>
-  </si>
-  <si>
-    <t>Минимальные государственные социальные стандарты – это государственные услуги, предоставление которых гражданам на безвозмездной и безвозвратной основах за счет финансирования из бюджетов всех уровней бюджетной системы Российской Федерации и бюджетов государственных внебюджетных фондов гарантируется государством на определенном минимально допустимом уровне на всей территории Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Налог – это обязательный, индивидуально безвозмездный платеж, взимаемый с организаций и физических лиц в форме отчуждения принадлежащих им на праве собственности, хозяйственного ведения или оперативного управления денежных средств, в целях финансового обеспечения деятельности государства и (или) муниципальных образований. Признаки налога: принудительный характер; безвозмездность; безэквивалентность.</t>
-  </si>
-  <si>
-    <t>Налоговые инспекции – это органы оперативного финансового контроля. Возглавляет систему налоговых органов Министерство по налогам и сборам Российской Федерации. Задачами налоговых служб являются: а) контроль за соблюдением законодательства о налогах, обеспечение полноты и своевременности внесения в бюджет налоговых платежей; б) осуществление проверок финансового состояния предприятий и организаций независимо от ведомственной подчиненности и их организационно - правовой формы; в) контроль за правильностью определения налогооблагаемой прибыли (дохода) с целью недопущения ее занижения; г) регистрация всех субъектов, а также реальных и потенциальных объектов налогообложения; д) учет, оценка и реализация конфискованного, бесхозного имущества, имущества, перешедшего государству, кладов. Налоговые инспекции имеют право: получать в организациях различных форм собственности необходимые документы и сведения, за исключением тех, которые составляют коммерческую тайну, определяемую законодательством; контролировать соблюдение законодательства о предпринимательстве граждан; обследовать все помещения, используемые для извлечения доходов; приостанавливать все операции предприятий и граждан в случае непредставления документов; изымать документы, свидетельствующие о сокрытии доходов; применять санкции и штрафы; предъявлять в суд и арбитраж иски о ликвидации предприятий, признании сделок недействительными.</t>
-  </si>
-  <si>
-    <t>Недвижимые вещи (недвижимое имущество, недвижимость) – это земельные участки участки недр другие объекты и все что прочно связано с землей то есть объекты, перемещения которых без несоразмерного ущерба их назначению невозможно в том числе леса многолетние насаждения здания сооружения. К недвижимым вещам относятся также подлежащие государственной регистрации воздушные и морские суда, суда внутреннего плавания, космические объекты. Законом к недвижимым вещам может быть отнесено и иное имущество.</t>
-  </si>
-  <si>
-    <t>Неустойка (штраф, пеня) – это определенная законом или договором денежная сумма которую должник обязан уплатить кредитору в случае неисполнения или ненадлежащего исполнения обязательства, в частности в случае просрочки исполнения. По требованию об уплате неустойки кредитор не обязан доказывать причинение ему убытков. Кредитор не вправе требовать уплаты неустойки если должник не несет ответственности за неисполнение или ненадлежащее исполнение обязательств.</t>
-  </si>
-  <si>
-    <t>Облигации государственные – это ценные бумаги, эмитируемые государством с целью привлечения в государственный бюджет части заемных средств. Доходы получаемые от ценных бумаг государства в отличие от корпоративных ценных бумаг имеют льготное налогообложение. В настоящее время Министерством финансов Российской Федерации по поручению Правительства РФ привлекаются краткосрочные заемные средства юридических лиц и населения под облигационные займы. Наиболее распространенным краткосрочным займом является заем под выпуск государственных краткосрочных бескупонных облигации (ГКО).</t>
-  </si>
-  <si>
-    <t>Облигации корпоративные – это облигации под заклад (обеспечиваются физическими активами) беззакладные облигации (прямые долго вые обязательства не создающие имущественных претензий к корпорации) облигации под заклад других ценных бумаг фирмы (обеспечиваются акциями или долговыми обязательствами компании) конвертируемые облигации (дают инвестору право на покупку обычных акции той же компании по определенной цене в определенный срок) доходные облигации (приносят процент только тогда когда заработан доход).</t>
-  </si>
-  <si>
-    <t>Облигации муниципальные – это выпускаются с целью мобилизации средств для строительства или ремонта объектов общественного пользования: дорог, мостов, водопроводной системы и т. п. Подразделяются на следующие виды облигации под общее обязательство (подкрепляются добросовестностью эмитента) облигации под доход от проекта (погашаются за счет доходов от проектов для финансирования которых они выпускаются).</t>
-  </si>
-  <si>
-    <t>Облигация – это ценная бумага удостоверяющая право ее держателя на получение от лица выпустившего облигацию в предусмотренный ею срок номинальной стоимости облигации или иного имущественного эквивалента. Облигация предоставляет ее держателю также право на по лучение фиксированного в ней процента от номинальной стоимости облигации либо иные имущественные права.</t>
-  </si>
-  <si>
-    <t>Обязательства денежные – это должны быть выражены в рублях. В денежном обязательстве может быть предусмотрено что оно подлежит оплате в рублях в сумме эквивалентной определенной сумме в иностранной валюте или в условных денежных единицах (экю например). В этом случае подлежащая уплате в рублях сумма определяется по официальному курсу соответствующей валюты или условных денежных единиц на день платежа если иной курс или иная дата его определения не установлены законом или соглашением сторон.</t>
-  </si>
-  <si>
-    <t>Овердрафт – это отрицательный баланс на текущем счете клиента, приобретающий иногда статус кредита, т.е. форма краткосрочного кредита предоставление которого осуществляется списанием средств по счету клиента банком сверх остатка средств на счете, в результате чего образуется дебетовое сальдо. При овердрафте в погашение задолженности направляются все суммы зачисляемые на текущий счет клиента поэтому объем кредита изменяется по мере поступления средств, что отличает овердрафт от обычных ссуд. Проценты взимаются по существующим или согласованным ставкам.</t>
-  </si>
-  <si>
-    <t>Опцион – это право выбора способа исполнения обязательства предоставляемое одной из сторон договора, его условиями или право отказа от исполнения обязательства при определенных условиях.</t>
-  </si>
-  <si>
-    <t>Опционный заем – это заем с опционом форма займа или долгового обязательства при ко тором кредитору в определенных пределах предоставляется право выбора погашения.</t>
-  </si>
-  <si>
-    <t>Оферент – это лицо выступающее с офертой.</t>
-  </si>
-  <si>
-    <t>Оферта – это формальное предложение определенному лицу заключить сделку с указанием всех необходимых для ее заключения условий.</t>
-  </si>
-  <si>
-    <t>Пассивы – это обязательства (за исключением субвенций дотации собственных средств и других источников) предприятия состоящие из заемных и привлеченных средств включая кредиторскую задолженность.</t>
-  </si>
-  <si>
-    <t>Переводной вексель (тратта) – это выписывает и подписывает кредитор (трассант). Он со держит приказ должнику (трассату) оплатить в указанный срок обозначенную в векселе сумму третьему лицу (ремитенту).</t>
-  </si>
-  <si>
-    <t>Платежное поручение – это поручение плательщика банку перевести определенную денежную сумму на счет указанного плательщиком лица в этом или в ином банке в срок предусмотренный законом или устанавливаемый в соответствии с ним если более короткий срок не предусмотрен договором банковского счета либо не определяется применяемыми в банковской практике обычаями делового оборота за счет средств находящихся на его счете.</t>
-  </si>
-  <si>
-    <t>Полис – это документ страхового органа подтверждающий наличие заключенной сделки о страховании.</t>
-  </si>
-  <si>
-    <t>Пошлины – это денежные суммы которые взимаются специально уполномоченными учреждениями за совершенные действия в пользу пред приятии или частных лиц.</t>
-  </si>
-  <si>
-    <t>Предприятие – это имущественный комплекс используемый для осуществления предпринимательской деятельности. В целом предприятие как имущественный комплекс признается недвижимостью. В состав предприятия как имущественного комплекса входят все виды имущества предназначенного для его деятельности включая земельные участки здания сооружения, оборудование инвентарь, сырье продукцию права требования, долги а также права на обо значения, индивидуализирующие предприятие его продукцию, работы и услуги (фирменное на именование, товарные знаки, знаки обслуживания) и другие исключительные права, если иное не предусмотрено законом или договором.</t>
-  </si>
-  <si>
-    <t>Прибыль (убыток) от реализации продукции и товаров – это определяется как разница между выручкой от реализации продукции (работ, услуг) в действующих ценах без налога на добавленную стоимость и акцизов, а также на ее производство и реализацию</t>
-  </si>
-  <si>
-    <t>Простой вексель (соло-вексель) – это выписывается и подписывается должником и содержит его безусловное обязательство уплатить кредитору определенную сумму в обусловленный срок и в определенном месте.</t>
-  </si>
-  <si>
-    <t>Регулирующие доходы – это доходы, которые предназначены для подкрепления нижестоящего бюджета, соблюдая субординацию. Перечень закрепленных и регулирующих доходов фиксируется специальными налоговыми законодательствами и кодексами.</t>
-  </si>
-  <si>
     <t>Резервы – это часть финансовых ресурсов которая предназначена для финансирования потребностей, возникающих непредвиденно и направленные как на простое, так и на расширенное воспроизводство и потребление. Страховые резервы - часть финансовых ресурсов направленная на возмещение ущерба по страховым случаям. Страховые финансовые резервы - финансовые резервы страховых компаний. Эти резервы необходимы когда текущих средств не хватает на выплаты.</t>
   </si>
   <si>
-    <t>Решение о выпуске ценных бумаг – это письменный документ, зарегистрированный в органе государственной регистрации и содержащий данные, достаточные для установления объема прав, удостоверенных ценной бумагой.</t>
-  </si>
-  <si>
-    <t>Рубль – это валюта Российской Федерации, законное платежное средство обязательное к приему по нарицательной стоимости на всей территории Российской Федерации.</t>
-  </si>
-  <si>
-    <t>Рынок ценных бумаг – это часть рынка ссудных капиталов где осуществляется эмиссия и купля-продажа ценных бумаг. Через рынок ценных бумаг (банки, специальные кредитные институты и фондовая биржа) аккумулируются де нежные накопления юридических, физических лиц и государства и направляются на производственное и непроизводственное вложение капиталов. Различают первичный рынок ценных бумаг где осуществляется эмиссия и первичное размещение ценных бумаг и вторичный где производится купля продажа (обращение) ранее выпущенных ценных бумаг.</t>
-  </si>
-  <si>
     <t>Сберегатели – это юридические и физические лица, накапливающие денежные средства в связи с тем, что расходы меньше накопленных средств, сосредоточенных на руках в виде на личности или на счетах в банках (население, предприятия и государство).</t>
   </si>
   <si>
-    <t>Сберегательный (депозитный) сертификат – это ценная бумага удостоверяющая сумму вклада, внесенного в банк и права вкладчика (держателя сертификата) на получение по истечении установленного срока суммы вклада и обусловленных в сертификате процентов в банке, выдавшем сертификат, или в любом филиале этого банка. Депозиты бывают до востребования (дают право на изъятие определенных сумм по предъявлению сертификата) и срочные (на которых указан срок изъятия вклада и размер причитающегося процента).</t>
-  </si>
-  <si>
-    <t>Сбор – это обязательный взнос взимаемый с организации и физических лиц уплата которого является одним из условий совершения в интересах плательщиков сборов государственными органами, органами местного самоуправления, иными уполномоченными органами и должностных видов ценных бумаг. Участники финансового рынка сберегатели, инвесторы, эмитенты.</t>
-  </si>
-  <si>
-    <t>Финансовый план – это системная совокупность мероприятий материального опосредования функционирования государства. Он составляется на срок от 1 до 5 лет и входит в бюджет. По форме финансовый план представляет собой изложение целей, цифр и организационных предложений на планируемый период. На предприятии планирование основывается на учете закона стоимости и при этом планирование выступает как экономическая категория. Финансовые планы имеют все звенья финансовой системы предприятия и организации, функционирующие на коммерческих началах, составляют балансы доходов и расходов, учреждения, осуществляющие некоммерческую деятельность, - сметы, кооперативные организации, общественные объединения и страховые компании - финансовые планы, органы государственной власти - бюджеты разных уровней. Объектом финансового планирования является финансовая деятельность субъектов хозяйствования и государства, а итоговым результатом - составление финансовых планов, начиная от сметы отдельного учреждения до сводного финансового баланса государства. В каждом плане определяются доходы и расходы на определенный период, связи со звеньями финансовой и кредитной систем (взносы отчислений на социальное страхование, платежи в бюджет, плата за банковский кредит и др.). Финансовые планы имеются у всех звеньев финансовой системы предприятия и организации, функционирующие на коммерческих началах составляют «баланс доходов и расходов», предприятия и организации, функционирующие на некоммерческих началах, составляют «смету», план общественных объединений - «финансовый план», органы государственной власти составляют «бюджет» (разных уровней центральный, местный, субъектов Федерации).</t>
-  </si>
-  <si>
-    <t>Финансоотдача – это количество прибыли, получаемой на вложенные ресурсы. Основной задачей является снижение финансоемкости и повышение финансоотдачи в общественном производстве. При этом необходимо помнить, что важным резервом роста финансовых ресурсов выступает улучшенная воспроизводственная структура финансовых ресурсов стоимости общественного продукта.</t>
-  </si>
-  <si>
-    <t>Финансы – это совокупность объективно обусловленных экономических отношений, имеющих распределительный характер, денежную форму выражения и материализуемых в денежных доходах и накоплениях, формируемых в руках государства и субъектов хозяйствования для целей расширенного воспроизводства, материального стимулирования работающих, удовлетворение социальных и других потребностей. Условием функционирования финансов является наличие денег, а причиной появления финансов служит потребность субъектов хозяйствования и государства в ресурсах, обеспечивающих их деятельность.</t>
-  </si>
-  <si>
-    <t>Фондовая биржа – это специализированная организация, объединяющая профессиональных участников рынка ценных бумаг, создающая условия для концентрации спроса и предложения, а также для повышения ликвидности рынка в целом. Биржа - то определенная организация торговли, которая подчиняется специальным правилам и процедурам. В процессе биржевых торговых собраний особыми методами устанавливается рыночная цена (курс) ЦБ, информация о которой наряду со сведениями об объемах совершенных сделок становится достоянием широких слоев инвесторов. В этом отношении биржу можно уподобить чуткому прибору, сигнализирующему о состоянии фондового рынка, а через него - о положении дел в экономике в целом.</t>
-  </si>
-  <si>
-    <t>Форфейтинг – это такая кредитная операция, при которой экспортер, получив от импортера акцептованные последним тратты (переводные векселя), продает их со скидкой банку или специализированной финансовой фирме. При наступлении срока оплаты тратт импортер погашает обычно полугодовыми платежами свою задолженность. Традиционно кредитованием внешнеторговых фирм на базе форфейтинга занимаются обычно крупные банки. Прибегая к форфейтингу, экспортер получает возможность дополнительно мобилизовать средства и сократить дебиторскую задолженность. Экспортер обращается к рынку форфейтинга в том случае, если ему не удается получить гарантию госудаственного института, или его внешнеторговый контракт недостаточно кредитоспособен или его собственное финансовое положение не позволяет надолго отвлекать средства.</t>
-  </si>
-  <si>
-    <t>Фьючерс, или фьючерсный контракт – это стандартный договор на поставку товара в будущем по цене, определенной сторонами при совершении сделки.</t>
-  </si>
-  <si>
-    <t>Ценная бумага – это документ, удостоверяющий с соблюдением установленной формы и обязательных реквизитов имущественные права, осуществление или передача которых возможны только при его предъявлении. С передачей ценной бумаги переходят все удостоверяемые ею права в совокупности. В случаях, предусмотренных законом, или в установленном' им порядке для осуществления и передачи прав, удостоверенных ценной бумагой, достаточно доказательств их закрепления в специальном реестре (обычном или компьютеризованном). К ценным бумагам относятся государственная облигация, облигация, вексель, чек, депозитный и сберегательный сертификаты, банковская сберегательная книжка на предъявителя, коносамент, акция, приватизационные ценные бумаги и другие документы, которые законами о ценных бумагах или в установленном ими порядке отнесены к числу ценных бумаг. Приобретая ценную бумагу, инвестор может рассчитывать, как минимум, на два вида дохода: инвестиционный и курсовой.</t>
-  </si>
-  <si>
-    <t>Ценные бумаги именные – это ценные бумаги, по которым информация об инвесторах должна быть доступна эмитенту в фирме реестра владельцев ценных бумаг.</t>
-  </si>
-  <si>
-    <t>Ценные бумаги на предъявителя – это ценные бумаги, переход прав на которые и осуществление удостоверенных ими прав не требует обязательной идентификации имени инвестора.</t>
-  </si>
-  <si>
-    <t>Ценных бумаг обращение – это заключение гражданско-правовых сделок, влекущих переход права собственности на ценные бумаги.</t>
-  </si>
-  <si>
-    <t>Ценных бумаг форма выпуска – это форма выпуска ценных бумаг, при которой инвестор устанавливается на основании предъявления оформленного надлежащим образом сертификата ценной бумаги или, в случае депонирования такового данного сертификата и записи по счету депо.</t>
-  </si>
-  <si>
-    <t>Центральные банки – это банки, осуществляющие выпуск банкнот и являющиеся центрами кредитной системы. Они занимают в ней особое место и являются, как правило, государственными учреждениями.</t>
-  </si>
-  <si>
-    <t>Чек – это ценная бумага, содержащая ничем не обусловленное распоряжение чекодателя банку произвести платеж указанной в нем суммы. В качестве плательщика по чеку может быть указан только банк, где чекодатель имеет средства, которыми он вправе распоряжаться путем выставления чеков. Отзыв чека до истечения срока для его предъявления не допускается. Выдача чека не погашает денежного обязательства, во исполнение которого он выдан. Форма чека и порядок его заполнения определяются законом и установленными в соответствии с ним банковскими правилами.</t>
-  </si>
-  <si>
-    <t>Эмиссионное право – это совокупность юридических норм, регулирующих выпуск денег в обращение.</t>
-  </si>
-  <si>
-    <t>Эмиссия – это выпуск в обращение денежных знаков. На территории РФ монопольное право выпуска в обращение денежных знаков принадлежит Центральному банку РФ.</t>
-  </si>
-  <si>
     <t>Эмитенты – это юридические лица, которые могут выпускать ценные бумаги. С помощью финансового рынка денежные накопления сберегателей привлекаются для инвестирования затрат на развитие производства, осуществление государственных и региональных целевых программ и других нужд. Объективной предпосылкой является несовпадение потребностей в финансовых ресурсах у субъектов хозяйствования с наличием источников финансовых ресурсов.</t>
   </si>
   <si>
-    <t>Юридическое лицо – это организация, которая имеет в собственности, хозяйственном ведении или оперативном управлении обособленное имущество и отвечает по своим обязательствам этим имуществом, может от своего имени приобретать и осуществлять имущественные и иные неимущественные права, нести обязанности, быть истцом и ответчиком в суде. Юридические лица должны иметь самостоятельный баланс или смету и быть зарегистрированы в качестве юридического лица. Юридическими лицами могут быть организации, преследующие извлечение прибыли в качестве основной цели своей деятельности (коммерческие организации) либо не ставящие извлечение прибыли в качестве такой цели и не распределяющие полученную прибыль между участниками (некоммерческие организации).</t>
+    <t>Государственный внешний долг – это долговые обязательства Правительства Российской Федерации перед иностранными государствами или международными организациями, выраженные в иностранной валюте.</t>
+  </si>
+  <si>
+    <t>Государственный внутренний долг – это долговые обязательства Правительства Российской Федерации, выраженные в валюте Российской Федерации, перед юридическими и физическими лицами, если иное не установлено нормативными актами Российской Федерации. Юридическими формами долговых обязательств являются кредиты, полученные правительством, государственные займы, полученные посредством выпуска ценных бумаг от имени Правительства Российской Федерации, других долговых обязательств, гарантированных Правительством Российской Федерации.</t>
+  </si>
+  <si>
+    <t>Денежные обязательства – это должны быть выражены в рублях. В денежном обязательстве может быть предусмотрено что оно подлежит оплате в рублях в сумме эквивалентной определенной сумме в иностранной валюте или в условных денежных единицах (экю например). В этом случае подлежащая уплате в рублях сумма определяется по официальному курсу соответствующей валюты или условных денежных единиц на день платежа если иной курс или иная дата его определения не установлены законом или соглашением сторон.</t>
+  </si>
+  <si>
+    <t>Товарная биржа – это коммерческое предприятие, регулярно функционирующий рынок однородных товаров с определенными характеристиками.</t>
+  </si>
+  <si>
+    <t>Корпоративные облигации – это облигации под заклад (обеспечиваются физическими активами) беззакладные облигации (прямые долго вые обязательства не создающие имущественных претензий к корпорации) облигации под заклад других ценных бумаг фирмы (обеспечиваются акциями или долговыми обязательствами компании) конвертируемые облигации (дают инвестору право на покупку обычных акции той же компании по определенной цене в определенный срок) доходные облигации (приносят процент только тогда когда заработан доход).</t>
+  </si>
+  <si>
+    <t>Именные ценные бумаги – это ценные бумаги, по которым информация об инвесторах должна быть доступна эмитенту в фирме реестра владельцев ценных бумаг.</t>
+  </si>
+  <si>
+    <t>Государственные облигации – это ценные бумаги, эмитируемые государством с целью привлечения в государственный бюджет части заемных средств. Доходы получаемые от ценных бумаг государства в отличие от корпоративных ценных бумаг имеют льготное налогообложение. В настоящее время Министерством финансов Российской Федерации по поручению Правительства РФ привлекаются краткосрочные заемные средства юридических лиц и населения под облигационные займы. Наиболее распространенным краткосрочным займом является заем под выпуск государственных краткосрочных бескупонных облигации (ГКО).</t>
+  </si>
+  <si>
+    <t>банк, корреспондент, определение, что, такое</t>
+  </si>
+  <si>
+    <t>центральный, банк, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бартерный, сделка, определение, что, такое</t>
+  </si>
+  <si>
+    <t>депорт, определение, что, такое</t>
+  </si>
+  <si>
+    <t>дотация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, ссуда, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, ассигнование, определение, что, такое</t>
+  </si>
+  <si>
+    <t>авизо, определение, что, такое</t>
+  </si>
+  <si>
+    <t>рубль, определение, что, такое</t>
+  </si>
+  <si>
+    <t>валюта, свободно, конвертировать, определение, что, такое</t>
   </si>
   <si>
     <t>аваль, определение, что, такое</t>
   </si>
   <si>
+    <t>переводной, вексель, тратта, определение, что, такое</t>
+  </si>
+  <si>
+    <t>простой, вексель, соло-вексель, определение, что, такое</t>
+  </si>
+  <si>
+    <t>эмиссия, определение, что, такое</t>
+  </si>
+  <si>
+    <t>муниципальный, облигация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>минимальный, государственный, социальный, стандарт, определение, что, такое</t>
+  </si>
+  <si>
+    <t>залог, определение, что, такое</t>
+  </si>
+  <si>
+    <t>валюта, определение, что, такое</t>
+  </si>
+  <si>
     <t>аванс, определение, что, такое</t>
   </si>
   <si>
-    <t>авизо, определение, что, такое</t>
-  </si>
-  <si>
-    <t>активы, определение, что, такое</t>
+    <t>государственный, финансы, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, кредит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджет, расход, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджет, доход, определение, что, такое</t>
+  </si>
+  <si>
+    <t>пошлина, определение, что, такое</t>
+  </si>
+  <si>
+    <t>аудиторский, деятельность, определение, что, такое</t>
+  </si>
+  <si>
+    <t>кредитный, договор, определение, что, такое</t>
+  </si>
+  <si>
+    <t>договор, банковский, счет, определение, что, такое</t>
+  </si>
+  <si>
+    <t>договор, государственный, заем, определение, что, такое</t>
+  </si>
+  <si>
+    <t>договор, банковский, вклад, депозит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>договор, заем, определение, что, такое</t>
+  </si>
+  <si>
+    <t>договор, поручительство, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, роспись, определение, что, такое</t>
+  </si>
+  <si>
+    <t>полис, определение, что, такое</t>
+  </si>
+  <si>
+    <t>ценный, бумага, определение, что, такое</t>
+  </si>
+  <si>
+    <t>закреплять, доход, определение, что, такое</t>
+  </si>
+  <si>
+    <t>регулировать, доход, определение, что, такое</t>
+  </si>
+  <si>
+    <t>опционный, заем, определение, что, такое</t>
+  </si>
+  <si>
+    <t>ценный, бумага, обращение, определение, что, такое</t>
+  </si>
+  <si>
+    <t>недвижимый, вещь, недвижимый, имущество, недвижимость, определение, что, такое</t>
+  </si>
+  <si>
+    <t>дефляция, определение, что, такое</t>
+  </si>
+  <si>
+    <t>предприятие, определение, что, такое</t>
+  </si>
+  <si>
+    <t>конкурсный, масса, определение, что, такое</t>
+  </si>
+  <si>
+    <t>актив, определение, что, такое</t>
+  </si>
+  <si>
+    <t>финансоотдача, определение, что, такое</t>
+  </si>
+  <si>
+    <t>акциз, определение, что, такое</t>
+  </si>
+  <si>
+    <t>вексельный, кредит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>коммерческий, кредит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, заем, определение, что, такое</t>
+  </si>
+  <si>
+    <t>оферент, определение, что, такое</t>
+  </si>
+  <si>
+    <t>минимальный, бюджетный, обеспеченность, определение, что, такое</t>
+  </si>
+  <si>
+    <t>банкротство, определение, что, такое</t>
+  </si>
+  <si>
+    <t>сбор, определение, что, такое</t>
+  </si>
+  <si>
+    <t>налог, определение, что, такое</t>
+  </si>
+  <si>
+    <t>пассив, определение, что, такое</t>
+  </si>
+  <si>
+    <t>неустойка, штраф, пеня, определение, что, такое</t>
+  </si>
+  <si>
+    <t>прибыль, убыток, от, реализация, продукция, товар, определение, что, такое</t>
+  </si>
+  <si>
+    <t>депозитарий, определение, что, такое</t>
+  </si>
+  <si>
+    <t>юридический, лицо, определение, что, такое</t>
+  </si>
+  <si>
+    <t>налоговый, инспекция, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, система, российский, федерация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, система, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, структура, определение, что, такое</t>
+  </si>
+  <si>
+    <t>овердрафт, определение, что, такое</t>
+  </si>
+  <si>
+    <t>банковский, гарантия, определение, что, такое</t>
+  </si>
+  <si>
+    <t>решение, о, выпуск, ценный, бумага, определение, что, такое</t>
+  </si>
+  <si>
+    <t>девальвация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>банковский, перевод, определение, что, такое</t>
+  </si>
+  <si>
+    <t>платежный, поручение, определение, что, такое</t>
+  </si>
+  <si>
+    <t>маклер, определение, что, такое</t>
+  </si>
+  <si>
+    <t>инвестиционный, фонд, определение, что, такое</t>
+  </si>
+  <si>
+    <t>опцион, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджет, профицит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджет, дефицит, определение, что, такое</t>
+  </si>
+  <si>
+    <t>депозитарный, деятельность, определение, что, такое</t>
+  </si>
+  <si>
+    <t>должник, предприятие, должник, определение, что, такое</t>
+  </si>
+  <si>
+    <t>лизинг, определение, что, такое</t>
+  </si>
+  <si>
+    <t>конкурсный, производство, определение, что, такое</t>
+  </si>
+  <si>
+    <t>безналичный, расчет, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, процесс, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджет, консолидировать, определение, что, такое</t>
+  </si>
+  <si>
+    <t>валютный, расчет, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, регулирование, определение, что, такое</t>
+  </si>
+  <si>
+    <t>финансовый, план, определение, что, такое</t>
+  </si>
+  <si>
+    <t>финансы, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, право, российский, федерация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>бюджетный, устройство, определение, что, такое</t>
+  </si>
+  <si>
+    <t>эмиссионный, право, определение, что, такое</t>
   </si>
   <si>
     <t>акцепт, определение, что, такое</t>
   </si>
   <si>
-    <t>акциз, определение, что, такое</t>
-  </si>
-  <si>
-    <t>акции, определение, что, такое</t>
-  </si>
-  <si>
-    <t>аудиторская, деятельность, определение, что, такое</t>
-  </si>
-  <si>
-    <t>банки-корреспонденты, определение, что, такое</t>
-  </si>
-  <si>
-    <t>банковская, гарантия, определение, что, такое</t>
-  </si>
-  <si>
-    <t>банковский, перевод, определение, что, такое</t>
-  </si>
-  <si>
-    <t>банкротство, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бартерная, сделка, определение, что, такое</t>
-  </si>
-  <si>
-    <t>безналичные, расчеты, определение, что, такое</t>
-  </si>
-  <si>
-    <t>биржа, товарная, определение, что, такое</t>
-  </si>
-  <si>
-    <t>биржа, фондовая, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджет, консолидированный, определение, что, такое</t>
+    <t>фондовый, биржа, определение, что, такое</t>
+  </si>
+  <si>
+    <t>внебюджетный, фонд, определение, что, такое</t>
+  </si>
+  <si>
+    <t>консигнация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>исковой, давность, определение, что, такое</t>
+  </si>
+  <si>
+    <t>фьючерс, фьючерсный, контракт, определение, что, такое</t>
+  </si>
+  <si>
+    <t>инвестор, определение, что, такое</t>
+  </si>
+  <si>
+    <t>индоссамент, определение, что, такое</t>
+  </si>
+  <si>
+    <t>форфейтинг, определение, что, такое</t>
+  </si>
+  <si>
+    <t>деноминация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>конкурсный, кредитор, определение, что, такое</t>
+  </si>
+  <si>
+    <t>ценный, бумага, форма, выпуск, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, внебюджетный, фонд, определение, что, такое</t>
   </si>
   <si>
     <t>бюджет, определение, что, такое</t>
   </si>
   <si>
-    <t>бюджета, дефицит, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджета, доходы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджета, профицит, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджета, расходы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетная, роспись, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетная, система, российской, федерации, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетная, система, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетная, ссуда, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетная, структура, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетное, право, российской, федерации, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетное, регулирование, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетное, устройство, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджетные, ассигнования, определение, что, такое</t>
+    <t>инкассо, определение, что, такое</t>
   </si>
   <si>
     <t>бюджетный, кредит, определение, что, такое</t>
   </si>
   <si>
-    <t>бюджетный, процесс, определение, что, такое</t>
-  </si>
-  <si>
-    <t>валюта, свободно-конвертируемая, определение, что, такое</t>
-  </si>
-  <si>
-    <t>валюта, определение, что, такое</t>
-  </si>
-  <si>
-    <t>валютные, расчеты, определение, что, такое</t>
+    <t>оферта, определение, что, такое</t>
   </si>
   <si>
     <t>валютный, курс, определение, что, такое</t>
   </si>
   <si>
+    <t>облигация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>сберегательный, депозитный, сертификат, определение, что, такое</t>
+  </si>
+  <si>
+    <t>чек, определение, что, такое</t>
+  </si>
+  <si>
     <t>вексель, определение, что, такое</t>
   </si>
   <si>
-    <t>вексельный, кредит, определение, что, такое</t>
-  </si>
-  <si>
-    <t>внебюджетные, фонды, определение, что, такое</t>
-  </si>
-  <si>
-    <t>государственные, займы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>государственные, расходы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>государственные, финансы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>государственный, внебюджетный, фонд, определение, что, такое</t>
-  </si>
-  <si>
-    <t>государственный, кредит, определение, что, такое</t>
-  </si>
-  <si>
-    <t>девальвация, определение, что, такое</t>
-  </si>
-  <si>
-    <t>деноминация, определение, что, такое</t>
-  </si>
-  <si>
-    <t>депозитарий, определение, что, такое</t>
-  </si>
-  <si>
-    <t>депозитарная, деятельность, определение, что, такое</t>
-  </si>
-  <si>
-    <t>депорт, определение, что, такое</t>
-  </si>
-  <si>
-    <t>дефляция, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, банковского, вклада, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, банковского, депозита, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, банковского, счета, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, государственного, займа, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, займа, определение, что, такое</t>
-  </si>
-  <si>
-    <t>договор, поручительства, определение, что, такое</t>
-  </si>
-  <si>
-    <t>долг, государственный, внешний, определение, что, такое</t>
-  </si>
-  <si>
-    <t>долг, государственный, внутренний, определение, что, такое</t>
-  </si>
-  <si>
-    <t>должник,, предприятие-должник, определение, что, такое</t>
-  </si>
-  <si>
-    <t>дотации, определение, что, такое</t>
-  </si>
-  <si>
-    <t>закрепленные, доходы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>залог, определение, что, такое</t>
-  </si>
-  <si>
-    <t>инвестиционный, фонд, определение, что, такое</t>
-  </si>
-  <si>
-    <t>инвесторы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>индоссамент, определение, что, такое</t>
-  </si>
-  <si>
-    <t>инкассо, определение, что, такое</t>
-  </si>
-  <si>
-    <t>исковая, давность, определение, что, такое</t>
-  </si>
-  <si>
-    <t>коммерческие, банки, определение, что, такое</t>
-  </si>
-  <si>
-    <t>коммерческий, кредит, определение, что, такое</t>
-  </si>
-  <si>
-    <t>конкурсная, масса, определение, что, такое</t>
-  </si>
-  <si>
-    <t>конкурсное, производство, определение, что, такое</t>
-  </si>
-  <si>
-    <t>конкурсный, кредитор, определение, что, такое</t>
-  </si>
-  <si>
-    <t>консигнация, определение, что, такое</t>
-  </si>
-  <si>
-    <t>кредитный, договор, определение, что, такое</t>
-  </si>
-  <si>
-    <t>лизинг, определение, что, такое</t>
-  </si>
-  <si>
-    <t>маклер, определение, что, такое</t>
-  </si>
-  <si>
-    <t>минимальная, бюджетная, обеспеченность, определение, что, такое</t>
-  </si>
-  <si>
-    <t>минимальные, государственные, социальные, стандарты, определение, что, такое</t>
-  </si>
-  <si>
-    <t>налог, определение, что, такое</t>
-  </si>
-  <si>
-    <t>налоговые, инспекции, определение, что, такое</t>
-  </si>
-  <si>
-    <t>недвижимое, имущество, определение, что, такое</t>
-  </si>
-  <si>
-    <t>недвижимость, определение, что, такое</t>
-  </si>
-  <si>
-    <t>недвижимые, вещи, определение, что, такое</t>
-  </si>
-  <si>
-    <t>неустойка, определение, что, такое</t>
-  </si>
-  <si>
-    <t>пеня, определение, что, такое</t>
-  </si>
-  <si>
-    <t>штраф, определение, что, такое</t>
-  </si>
-  <si>
-    <t>облигации, государственные, определение, что, такое</t>
-  </si>
-  <si>
-    <t>облигации, корпоративные, определение, что, такое</t>
-  </si>
-  <si>
-    <t>облигации, муниципальные, определение, что, такое</t>
-  </si>
-  <si>
-    <t>облигация, определение, что, такое</t>
-  </si>
-  <si>
-    <t>обязательства, денежные, определение, что, такое</t>
-  </si>
-  <si>
-    <t>овердрафт, определение, что, такое</t>
-  </si>
-  <si>
-    <t>опцион, определение, что, такое</t>
-  </si>
-  <si>
-    <t>опционный, заем, определение, что, такое</t>
-  </si>
-  <si>
-    <t>оферент, определение, что, такое</t>
-  </si>
-  <si>
-    <t>оферта, определение, что, такое</t>
-  </si>
-  <si>
-    <t>пассивы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>переводной, вексель, определение, что, такое</t>
-  </si>
-  <si>
-    <t>тратта, определение, что, такое</t>
-  </si>
-  <si>
-    <t>платежное, поручение, определение, что, такое</t>
-  </si>
-  <si>
-    <t>полис, определение, что, такое</t>
-  </si>
-  <si>
-    <t>пошлины, определение, что, такое</t>
-  </si>
-  <si>
-    <t>предприятие, определение, что, такое</t>
-  </si>
-  <si>
-    <t>прибыль, от, реализации, продукции, и, товаров, определение, что, такое</t>
-  </si>
-  <si>
-    <t>убыток, от, реализации, продукции, и, товаров, определение, что, такое</t>
-  </si>
-  <si>
-    <t>простой, вексель, определение, что, такое</t>
-  </si>
-  <si>
-    <t>соло-вексель, определение, что, такое</t>
-  </si>
-  <si>
-    <t>регулирующие, доходы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>резервы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>решение, о, выпуске, ценных, бумаг, определение, что, такое</t>
-  </si>
-  <si>
-    <t>рубль, определение, что, такое</t>
-  </si>
-  <si>
-    <t>рынок, ценных, бумаг, определение, что, такое</t>
-  </si>
-  <si>
-    <t>сберегатели, определение, что, такое</t>
-  </si>
-  <si>
-    <t>депозитный, сертификат, определение, что, такое</t>
-  </si>
-  <si>
-    <t>сберегательный, сертификат, определение, что, такое</t>
-  </si>
-  <si>
-    <t>сбор, определение, что, такое</t>
-  </si>
-  <si>
-    <t>финансовый, план, определение, что, такое</t>
-  </si>
-  <si>
-    <t>финансоотдача, определение, что, такое</t>
-  </si>
-  <si>
-    <t>финансы, определение, что, такое</t>
-  </si>
-  <si>
-    <t>фондовая, биржа, определение, что, такое</t>
-  </si>
-  <si>
-    <t>форфейтинг, определение, что, такое</t>
-  </si>
-  <si>
-    <t>фьючерс, определение, что, такое</t>
-  </si>
-  <si>
-    <t>фьючерсный, контракт, определение, что, такое</t>
-  </si>
-  <si>
-    <t>ценная, бумага, определение, что, такое</t>
-  </si>
-  <si>
-    <t>ценные, бумаги, именные, определение, что, такое</t>
-  </si>
-  <si>
-    <t>ценные, бумаги, на, предъявителя, определение, что, такое</t>
-  </si>
-  <si>
-    <t>ценных, бумаг, обращение, определение, что, такое</t>
-  </si>
-  <si>
-    <t>ценных, бумаг, форма, выпуска, определение, что, такое</t>
-  </si>
-  <si>
-    <t>центральные, банки, определение, что, такое</t>
-  </si>
-  <si>
-    <t>чек, определение, что, такое</t>
-  </si>
-  <si>
-    <t>эмиссионное, право, определение, что, такое</t>
-  </si>
-  <si>
-    <t>эмиссия, определение, что, такое</t>
-  </si>
-  <si>
-    <t>эмитенты, определение, что, такое</t>
-  </si>
-  <si>
-    <t>юридическое, лицо, определение, что, такое</t>
+    <t>акция, определение, что, такое</t>
+  </si>
+  <si>
+    <t>ценный, бумага, на, предъявитель, определение, что, такое</t>
+  </si>
+  <si>
+    <t>коммерческий, банк, определение, что, такое</t>
+  </si>
+  <si>
+    <t>рынок, ценный, бумага, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, расход, определение, что, такое</t>
+  </si>
+  <si>
+    <t>резерв, определение, что, такое</t>
+  </si>
+  <si>
+    <t>сберегатель, определение, что, такое</t>
+  </si>
+  <si>
+    <t>эмитент, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, внешний, долг, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, внутренний, долг, определение, что, такое</t>
+  </si>
+  <si>
+    <t>денежный, обязательство, определение, что, такое</t>
+  </si>
+  <si>
+    <t>товарный, биржа, определение, что, такое</t>
+  </si>
+  <si>
+    <t>корпоративный, облигация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>именной, ценный, бумага, определение, что, такое</t>
+  </si>
+  <si>
+    <t>государственный, облигация, определение, что, такое</t>
   </si>
 </sst>
 </file>
@@ -1997,7 +1895,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L136"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2046,16 +1944,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="E2" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2063,16 +1961,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2080,16 +1978,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2097,16 +1995,16 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2114,16 +2012,16 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2131,16 +2029,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2148,16 +2046,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>288</v>
+        <v>266</v>
       </c>
       <c r="E8" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2165,16 +2063,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C9" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="D9" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2182,16 +2080,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C10" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2199,16 +2097,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="D11" t="s">
-        <v>291</v>
+        <v>269</v>
       </c>
       <c r="E11" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2216,16 +2114,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="D12" t="s">
-        <v>292</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2233,16 +2131,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C13" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="D13" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="E13" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2250,16 +2148,16 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C14" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="D14" t="s">
-        <v>294</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2267,16 +2165,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C15" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="D15" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2284,16 +2182,16 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C16" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D16" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="E16" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2301,16 +2199,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>275</v>
       </c>
       <c r="E17" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2318,16 +2216,16 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C18" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="D18" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2335,16 +2233,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C19" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="D19" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2352,16 +2250,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C20" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="D20" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2369,16 +2267,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C21" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="D21" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2386,16 +2284,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C22" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="D22" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2403,16 +2301,16 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="D23" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="E23" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2420,16 +2318,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="E24" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2437,16 +2335,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C25" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2454,16 +2352,16 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C26" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="D26" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2471,16 +2369,16 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C27" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="D27" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="E27" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2488,16 +2386,16 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C28" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="D28" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="E28" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2505,16 +2403,16 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C29" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="E29" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2522,16 +2420,16 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="D30" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="E30" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2539,16 +2437,16 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="D31" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2556,16 +2454,16 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C32" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="E32" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2573,16 +2471,16 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="D33" t="s">
-        <v>313</v>
+        <v>291</v>
       </c>
       <c r="E33" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2590,16 +2488,16 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C34" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="D34" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="E34" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2607,16 +2505,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C35" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="D35" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="E35" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2624,16 +2522,16 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="D36" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2641,16 +2539,16 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C37" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D37" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="E37" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2658,16 +2556,16 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C38" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D38" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="E38" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2675,16 +2573,16 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C39" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>319</v>
+        <v>297</v>
       </c>
       <c r="E39" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2692,16 +2590,16 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="D40" t="s">
-        <v>320</v>
+        <v>298</v>
       </c>
       <c r="E40" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2709,16 +2607,16 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="D41" t="s">
-        <v>321</v>
+        <v>299</v>
       </c>
       <c r="E41" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2726,16 +2624,16 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s">
-        <v>322</v>
+        <v>300</v>
       </c>
       <c r="E42" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2743,16 +2641,16 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C43" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="D43" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="E43" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2760,16 +2658,16 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C44" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="D44" t="s">
-        <v>324</v>
+        <v>302</v>
       </c>
       <c r="E44" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2777,16 +2675,16 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C45" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="D45" t="s">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="E45" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2794,16 +2692,16 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C46" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="D46" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="E46" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2811,16 +2709,16 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="D47" t="s">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2828,16 +2726,16 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C48" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D48" t="s">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="E48" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2845,16 +2743,16 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C49" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="D49" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="E49" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2862,16 +2760,16 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C50" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="D50" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2879,16 +2777,16 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2896,16 +2794,16 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C52" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="D52" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="E52" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2913,16 +2811,16 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="D53" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="E53" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2930,16 +2828,16 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D54" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="E54" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2947,16 +2845,16 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C55" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="E55" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2964,16 +2862,16 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D56" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="E56" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2981,16 +2879,16 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C57" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D57" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="E57" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2998,16 +2896,16 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C58" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D58" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E58" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3015,16 +2913,16 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C59" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D59" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="E59" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3032,16 +2930,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D60" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="E60" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3049,16 +2947,16 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D61" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="E61" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3066,16 +2964,16 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C62" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D62" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="E62" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3083,16 +2981,16 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C63" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="D63" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="E63" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3100,16 +2998,16 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="E64" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3117,16 +3015,16 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C65" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="D65" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E65" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3134,16 +3032,16 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="D66" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E66" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3151,16 +3049,16 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="D67" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="E67" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3168,16 +3066,16 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C68" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="D68" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="E68" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3185,16 +3083,16 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C69" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="D69" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="E69" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3202,16 +3100,16 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C70" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D70" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="E70" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3219,16 +3117,16 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C71" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D71" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="E71" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3236,16 +3134,16 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C72" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="D72" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E72" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3253,16 +3151,16 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C73" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="D73" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="E73" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3270,16 +3168,16 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C74" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="D74" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="E74" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3287,16 +3185,16 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C75" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="D75" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="E75" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3304,16 +3202,16 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C76" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="D76" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="E76" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3321,16 +3219,16 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="D77" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="E77" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3338,16 +3236,16 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D78" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="E78" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3355,16 +3253,16 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C79" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="D79" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="E79" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3372,16 +3270,16 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C80" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="D80" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="E80" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3389,16 +3287,16 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D81" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="E81" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3406,16 +3304,16 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C82" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D82" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="E82" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3423,16 +3321,16 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="C83" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="D83" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="E83" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3440,16 +3338,16 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C84" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="D84" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
       <c r="E84" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3457,16 +3355,16 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="D85" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="E85" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3474,16 +3372,16 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C86" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="D86" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E86" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3491,16 +3389,16 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="D87" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="E87" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3508,16 +3406,16 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C88" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D88" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="E88" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3525,16 +3423,16 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="C89" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="D89" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
       <c r="E89" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3542,16 +3440,16 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="C90" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="D90" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="E90" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3559,16 +3457,16 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="C91" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="D91" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="E91" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3576,16 +3474,16 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="C92" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="D92" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="E92" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3593,16 +3491,16 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="D93" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="E93" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3610,16 +3508,16 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="C94" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="D94" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="E94" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3627,16 +3525,16 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="C95" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="D95" t="s">
-        <v>370</v>
+        <v>353</v>
       </c>
       <c r="E95" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3644,16 +3542,16 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="C96" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="D96" t="s">
-        <v>371</v>
+        <v>354</v>
       </c>
       <c r="E96" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3661,16 +3559,16 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="D97" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="E97" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3678,16 +3576,16 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C98" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="D98" t="s">
-        <v>373</v>
+        <v>356</v>
       </c>
       <c r="E98" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3695,16 +3593,16 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="C99" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="D99" t="s">
-        <v>374</v>
+        <v>357</v>
       </c>
       <c r="E99" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3712,16 +3610,16 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="C100" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="D100" t="s">
-        <v>375</v>
+        <v>358</v>
       </c>
       <c r="E100" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3729,16 +3627,16 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C101" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D101" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E101" t="s">
-        <v>506</v>
+        <v>483</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3746,16 +3644,16 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="C102" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D102" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="E102" t="s">
-        <v>507</v>
+        <v>484</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3763,16 +3661,16 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="C103" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D103" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E103" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3780,16 +3678,16 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C104" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D104" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E104" t="s">
-        <v>509</v>
+        <v>486</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3797,16 +3695,16 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C105" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="D105" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E105" t="s">
-        <v>510</v>
+        <v>487</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3814,16 +3712,16 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C106" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D106" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E106" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3831,16 +3729,16 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D107" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="E107" t="s">
-        <v>512</v>
+        <v>489</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3848,16 +3746,16 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C108" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D108" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="E108" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3865,16 +3763,16 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D109" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="E109" t="s">
-        <v>514</v>
+        <v>491</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3882,16 +3780,16 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="C110" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="D110" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E110" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3899,16 +3797,16 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="C111" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="D111" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E111" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3916,16 +3814,16 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="C112" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D112" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="E112" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3933,16 +3831,16 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="D113" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E113" t="s">
-        <v>518</v>
+        <v>495</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3950,16 +3848,16 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="C114" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D114" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="E114" t="s">
-        <v>519</v>
+        <v>496</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3967,16 +3865,16 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C115" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="D115" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E115" t="s">
-        <v>520</v>
+        <v>497</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3984,16 +3882,16 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="C116" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D116" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="E116" t="s">
-        <v>521</v>
+        <v>498</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -4001,16 +3899,16 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C117" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="D117" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="E117" t="s">
-        <v>522</v>
+        <v>499</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -4018,16 +3916,16 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="C118" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="D118" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="E118" t="s">
-        <v>523</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -4035,16 +3933,16 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C119" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="D119" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="E119" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -4052,16 +3950,16 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C120" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="D120" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="E120" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -4069,16 +3967,16 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="D121" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="E121" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -4086,16 +3984,16 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C122" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E122" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -4103,16 +4001,16 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C123" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="D123" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="E123" t="s">
-        <v>528</v>
+        <v>505</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -4120,16 +4018,16 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="C124" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="D124" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="E124" t="s">
-        <v>529</v>
+        <v>506</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -4137,203 +4035,16 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C125" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="D125" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="E125" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" t="s">
-        <v>271</v>
-      </c>
-      <c r="C126" t="s">
-        <v>396</v>
-      </c>
-      <c r="D126" t="s">
-        <v>396</v>
-      </c>
-      <c r="E126" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" t="s">
-        <v>397</v>
-      </c>
-      <c r="D127" t="s">
-        <v>397</v>
-      </c>
-      <c r="E127" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" t="s">
-        <v>138</v>
-      </c>
-      <c r="B128" t="s">
-        <v>273</v>
-      </c>
-      <c r="C128" t="s">
-        <v>398</v>
-      </c>
-      <c r="D128" t="s">
-        <v>398</v>
-      </c>
-      <c r="E128" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" t="s">
-        <v>139</v>
-      </c>
-      <c r="B129" t="s">
-        <v>274</v>
-      </c>
-      <c r="C129" t="s">
-        <v>399</v>
-      </c>
-      <c r="D129" t="s">
-        <v>399</v>
-      </c>
-      <c r="E129" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" t="s">
-        <v>140</v>
-      </c>
-      <c r="B130" t="s">
-        <v>275</v>
-      </c>
-      <c r="C130" t="s">
-        <v>400</v>
-      </c>
-      <c r="D130" t="s">
-        <v>400</v>
-      </c>
-      <c r="E130" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" t="s">
-        <v>141</v>
-      </c>
-      <c r="B131" t="s">
-        <v>276</v>
-      </c>
-      <c r="C131" t="s">
-        <v>401</v>
-      </c>
-      <c r="D131" t="s">
-        <v>401</v>
-      </c>
-      <c r="E131" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" t="s">
-        <v>142</v>
-      </c>
-      <c r="B132" t="s">
-        <v>277</v>
-      </c>
-      <c r="C132" t="s">
-        <v>402</v>
-      </c>
-      <c r="D132" t="s">
-        <v>402</v>
-      </c>
-      <c r="E132" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" t="s">
-        <v>143</v>
-      </c>
-      <c r="B133" t="s">
-        <v>278</v>
-      </c>
-      <c r="C133" t="s">
-        <v>403</v>
-      </c>
-      <c r="D133" t="s">
-        <v>403</v>
-      </c>
-      <c r="E133" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" t="s">
-        <v>144</v>
-      </c>
-      <c r="B134" t="s">
-        <v>279</v>
-      </c>
-      <c r="C134" t="s">
-        <v>404</v>
-      </c>
-      <c r="D134" t="s">
-        <v>404</v>
-      </c>
-      <c r="E134" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" t="s">
-        <v>145</v>
-      </c>
-      <c r="B135" t="s">
-        <v>280</v>
-      </c>
-      <c r="C135" t="s">
-        <v>405</v>
-      </c>
-      <c r="D135" t="s">
-        <v>405</v>
-      </c>
-      <c r="E135" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" t="s">
-        <v>281</v>
-      </c>
-      <c r="C136" t="s">
-        <v>406</v>
-      </c>
-      <c r="D136" t="s">
-        <v>406</v>
-      </c>
-      <c r="E136" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="476">
   <si>
     <t>id</t>
   </si>
@@ -400,30 +400,6 @@
     <t>33.116</t>
   </si>
   <si>
-    <t>33.117</t>
-  </si>
-  <si>
-    <t>33.118</t>
-  </si>
-  <si>
-    <t>33.119</t>
-  </si>
-  <si>
-    <t>33.120</t>
-  </si>
-  <si>
-    <t>33.121</t>
-  </si>
-  <si>
-    <t>33.122</t>
-  </si>
-  <si>
-    <t>33.123</t>
-  </si>
-  <si>
-    <t>33.124</t>
-  </si>
-  <si>
     <t>Что такое банки-корреспонденты?</t>
   </si>
   <si>
@@ -484,9 +460,6 @@
     <t>Что такое государственные финансы?</t>
   </si>
   <si>
-    <t>Что такое государственный кредит?</t>
-  </si>
-  <si>
     <t>Что такое бюджета расходы?</t>
   </si>
   <si>
@@ -556,9 +529,6 @@
     <t>Что такое финансоотдача?</t>
   </si>
   <si>
-    <t>Что такое акциз?</t>
-  </si>
-  <si>
     <t>Что такое вексельный кредит?</t>
   </si>
   <si>
@@ -580,9 +550,6 @@
     <t>Что такое сбор?</t>
   </si>
   <si>
-    <t>Что такое налог?</t>
-  </si>
-  <si>
     <t>Что такое пассивы?</t>
   </si>
   <si>
@@ -619,9 +586,6 @@
     <t>Что такое решение о выпуске ценных бумаг?</t>
   </si>
   <si>
-    <t>Что такое девальвация?</t>
-  </si>
-  <si>
     <t>Что такое банковский перевод?</t>
   </si>
   <si>
@@ -658,9 +622,6 @@
     <t>Что такое безналичные расчеты?</t>
   </si>
   <si>
-    <t>Что такое бюджетный процесс?</t>
-  </si>
-  <si>
     <t>Что такое бюджет консолидированный?</t>
   </si>
   <si>
@@ -673,9 +634,6 @@
     <t>Что такое финансовый план?</t>
   </si>
   <si>
-    <t>Что такое финансы?</t>
-  </si>
-  <si>
     <t>Что такое бюджетное право Российской Федерации?</t>
   </si>
   <si>
@@ -712,9 +670,6 @@
     <t>Что такое форфейтинг?</t>
   </si>
   <si>
-    <t>Что такое деноминация?</t>
-  </si>
-  <si>
     <t>Что такое конкурсный кредитор?</t>
   </si>
   <si>
@@ -724,9 +679,6 @@
     <t>Что такое государственный внебюджетный фонд?</t>
   </si>
   <si>
-    <t>Что такое бюджет?</t>
-  </si>
-  <si>
     <t>Что такое инкассо?</t>
   </si>
   <si>
@@ -856,9 +808,6 @@
     <t>Государственные финансы – это денежные отношения по поводу распределения и перераспределения стоимости общественного продукта и части национального богатства, связанные с формированием финансовых ресурсов в распоряжении государства и его предприятий и использованием государственных средств на затраты по расширению производства, удовлетворение социально-культурных потребностей общества, нужд обороны и управления. Доходы государственного бюджета состоят из многих источников и поступлений. Совокупность всех видов государственных доходов, которая формируется различными методами, составляет систему государственных доходов.</t>
   </si>
   <si>
-    <t>Государственный кредит – это денежные отношения, возникающие у государства с юридическими и физическими лицами в связи с мобилизацией временно свободных денежных средств в распоряжение органов государственной власти и их использование на финансирование государственных расходов.</t>
-  </si>
-  <si>
     <t>Бюджета расходы – это денежные средства, направляемые на финансовое обеспечение задач и функций государства и местного самоуправления.</t>
   </si>
   <si>
@@ -928,9 +877,6 @@
     <t>Финансоотдача – это количество прибыли, получаемой на вложенные ресурсы. Основной задачей является снижение финансоемкости и повышение финансоотдачи в общественном производстве. При этом необходимо помнить, что важным резервом роста финансовых ресурсов выступает улучшенная воспроизводственная структура финансовых ресурсов стоимости общественного продукта.</t>
   </si>
   <si>
-    <t>Акциз – это косвенный налог, включаемый в цену товара и оплачиваемый покупателем. Законом РФ установлен порядок обложения акцизами реализуемых винно-водочных изделий, этилового спирта и пищевого сырья (кроме отпускаемого для выработки ликероводочных изделий и винодельческой продукции, пива, табачных изделий, шин, легковых автомобилей, грузовых автомобилей грузоподъемностью до 1,25 тонн, ювелирных изделий, бриллиантов, изделий из хрусталя, ковров и ковровых изделий, меховых изделий, а также одежды из натуральной кожи).</t>
-  </si>
-  <si>
     <t>Вексельный кредит – это кредит, оформляемый путем выставления переводного векселя на импортера, который акцептует его по получении товаросопроводительных и платежных документов.</t>
   </si>
   <si>
@@ -952,9 +898,6 @@
     <t>Сбор – это обязательный взнос взимаемый с организации и физических лиц уплата которого является одним из условий совершения в интересах плательщиков сборов государственными органами, органами местного самоуправления, иными уполномоченными органами и должностных видов ценных бумаг. Участники финансового рынка сберегатели, инвесторы, эмитенты.</t>
   </si>
   <si>
-    <t>Налог – это обязательный, индивидуально безвозмездный платеж, взимаемый с организаций и физических лиц в форме отчуждения принадлежащих им на праве собственности, хозяйственного ведения или оперативного управления денежных средств, в целях финансового обеспечения деятельности государства и (или) муниципальных образований. Признаки налога: принудительный характер; безвозмездность; безэквивалентность.</t>
-  </si>
-  <si>
     <t>Пассивы – это обязательства (за исключением субвенций дотации собственных средств и других источников) предприятия состоящие из заемных и привлеченных средств включая кредиторскую задолженность.</t>
   </si>
   <si>
@@ -991,9 +934,6 @@
     <t>Решение о выпуске ценных бумаг – это письменный документ, зарегистрированный в органе государственной регистрации и содержащий данные, достаточные для установления объема прав, удостоверенных ценной бумагой.</t>
   </si>
   <si>
-    <t>Девальвация – это понижение курса национальной или международной (региональной) денежной единицы по отношению к валютам другой страны. Очень часто девальвация отражает обесценение валютных средств в результате инфляции.</t>
-  </si>
-  <si>
     <t>Банковский перевод – это поручение одного лица (перевододателя) банку перевести определенную сумму в пользу другого лица (переводополучателя). Банк, принявший поручение на перевод, выполняет его через своего корреспондента.</t>
   </si>
   <si>
@@ -1030,9 +970,6 @@
     <t>Безналичные расчеты – это расчеты между организациями, производимые путем перечисления банком суммы со счета организации должника на счет организации-кредитора по расчетным документам в безналичном порядке. Платежи могут производиться с согласия (акцепта) плательщика и по его поручению.</t>
   </si>
   <si>
-    <t>Бюджетный процесс – это регламентируемая нормами права деятельность органов государственной власти, органов местного самоуправления и участников бюджетного процесса по составлению и рассмотрению проектов бюджетов, проектов бюджетов государственных внебюджетных фондов, утверждению и исполнению бюджетов и бюджетов государственных внебюджетных фондов, а также по контролю за их исполнением.</t>
-  </si>
-  <si>
     <t>Бюджет консолидированный – это свод бюджетов всех уровней бюджетной системы Российской Федерации на соответствующей территории.</t>
   </si>
   <si>
@@ -1045,9 +982,6 @@
     <t>Финансовый план – это системная совокупность мероприятий материального опосредования функционирования государства. Он составляется на срок от 1 до 5 лет и входит в бюджет. По форме финансовый план представляет собой изложение целей, цифр и организационных предложений на планируемый период. На предприятии планирование основывается на учете закона стоимости и при этом планирование выступает как экономическая категория. Финансовые планы имеют все звенья финансовой системы предприятия и организации, функционирующие на коммерческих началах, составляют балансы доходов и расходов, учреждения, осуществляющие некоммерческую деятельность, - сметы, кооперативные организации, общественные объединения и страховые компании - финансовые планы, органы государственной власти - бюджеты разных уровней. Объектом финансового планирования является финансовая деятельность субъектов хозяйствования и государства, а итоговым результатом - составление финансовых планов, начиная от сметы отдельного учреждения до сводного финансового баланса государства. В каждом плане определяются доходы и расходы на определенный период, связи со звеньями финансовой и кредитной систем (взносы отчислений на социальное страхование, платежи в бюджет, плата за банковский кредит и др.). Финансовые планы имеются у всех звеньев финансовой системы предприятия и организации, функционирующие на коммерческих началах составляют «баланс доходов и расходов», предприятия и организации, функционирующие на некоммерческих началах, составляют «смету», план общественных объединений - «финансовый план», органы государственной власти составляют «бюджет» (разных уровней центральный, местный, субъектов Федерации).</t>
   </si>
   <si>
-    <t>Финансы – это совокупность объективно обусловленных экономических отношений, имеющих распределительный характер, денежную форму выражения и материализуемых в денежных доходах и накоплениях, формируемых в руках государства и субъектов хозяйствования для целей расширенного воспроизводства, материального стимулирования работающих, удовлетворение социальных и других потребностей. Условием функционирования финансов является наличие денег, а причиной появления финансов служит потребность субъектов хозяйствования и государства в ресурсах, обеспечивающих их деятельность.</t>
-  </si>
-  <si>
     <t>Бюджетное право Российской Федерации – это совокупность правовых норм (обязательных правил поведения), разграничивающих сферу различных бюджетов (например, областных, краевых, городских, районных, сельских, поселковых), определяющих полномочия отдельных органов государственной власти в деле издания бюджетного закона, регулирующих порядок подготовки и исполнения этого закона.</t>
   </si>
   <si>
@@ -1084,9 +1018,6 @@
     <t>Форфейтинг – это такая кредитная операция, при которой экспортер, получив от импортера акцептованные последним тратты (переводные векселя), продает их со скидкой банку или специализированной финансовой фирме. При наступлении срока оплаты тратт импортер погашает обычно полугодовыми платежами свою задолженность. Традиционно кредитованием внешнеторговых фирм на базе форфейтинга занимаются обычно крупные банки. Прибегая к форфейтингу, экспортер получает возможность дополнительно мобилизовать средства и сократить дебиторскую задолженность. Экспортер обращается к рынку форфейтинга в том случае, если ему не удается получить гарантию госудаственного института, или его внешнеторговый контракт недостаточно кредитоспособен или его собственное финансовое положение не позволяет надолго отвлекать средства.</t>
   </si>
   <si>
-    <t>Деноминация – это укрупнение национальной денежной единицы путем обмена по установленному соотношению старых денежных знаков на новые в целях упорядочения денежного обращения, облегчения учета и расчетов в стране с одновременным пересчетом (в таком же соотношении) цен, тарифов, заработной платы и др.</t>
-  </si>
-  <si>
     <t>Конкурсный кредитор – это физическое или юридическое лицо, имеющее имущественные требования к должнику и не являющееся носителем залоговых прав.</t>
   </si>
   <si>
@@ -1096,9 +1027,6 @@
     <t>Государственный внебюджетный фонд – это форма образования и расходования денежных средств, образуемых вне федерального бюджета и бюджетов субъектов Российской Федерации.</t>
   </si>
   <si>
-    <t>Бюджет – это форма образования и расходования фонда денежных средств, предназначенных для финансового обеспечения задач и функций государства и местного самоуправления; экономическая категория, представленная денежными отношениями, возникающими у государства с юридическими и физическими лицами по поводу перераспределения национального дохода в связи с образованием и использованием бюджетного фонда страны, предназначенного на финансирование народного хозяйства, социально-культурных нужд, нужд обороны и государственного управления.</t>
-  </si>
-  <si>
     <t>Инкассо – это форма расчетов, при которой банк (банк-эмитент) обязуется по поручению клиента осуществить за счет клиента действия по получению от плательщика платежа и (или) акцепта платежа. Банк-эмитент, получивший поручение клиента, вправе привлекать для его выполнения иной банк (исполняющий банк). Порядок осуществления расчетов по инкассо регулируется законом, установленными в соответствии с ним банковскими правилами и применяемыми в банковской практике обычаями делового оборота.</t>
   </si>
   <si>
@@ -1228,9 +1156,6 @@
     <t>государственный, финансы, определение, что, такое</t>
   </si>
   <si>
-    <t>государственный, кредит, определение, что, такое</t>
-  </si>
-  <si>
     <t>бюджет, расход, определение, что, такое</t>
   </si>
   <si>
@@ -1300,9 +1225,6 @@
     <t>финансоотдача, определение, что, такое</t>
   </si>
   <si>
-    <t>акциз, определение, что, такое</t>
-  </si>
-  <si>
     <t>вексельный, кредит, определение, что, такое</t>
   </si>
   <si>
@@ -1324,9 +1246,6 @@
     <t>сбор, определение, что, такое</t>
   </si>
   <si>
-    <t>налог, определение, что, такое</t>
-  </si>
-  <si>
     <t>пассив, определение, что, такое</t>
   </si>
   <si>
@@ -1363,9 +1282,6 @@
     <t>решение, о, выпуск, ценный, бумага, определение, что, такое</t>
   </si>
   <si>
-    <t>девальвация, определение, что, такое</t>
-  </si>
-  <si>
     <t>банковский, перевод, определение, что, такое</t>
   </si>
   <si>
@@ -1402,9 +1318,6 @@
     <t>безналичный, расчет, определение, что, такое</t>
   </si>
   <si>
-    <t>бюджетный, процесс, определение, что, такое</t>
-  </si>
-  <si>
     <t>бюджет, консолидировать, определение, что, такое</t>
   </si>
   <si>
@@ -1417,9 +1330,6 @@
     <t>финансовый, план, определение, что, такое</t>
   </si>
   <si>
-    <t>финансы, определение, что, такое</t>
-  </si>
-  <si>
     <t>бюджетный, право, российский, федерация, определение, что, такое</t>
   </si>
   <si>
@@ -1456,9 +1366,6 @@
     <t>форфейтинг, определение, что, такое</t>
   </si>
   <si>
-    <t>деноминация, определение, что, такое</t>
-  </si>
-  <si>
     <t>конкурсный, кредитор, определение, что, такое</t>
   </si>
   <si>
@@ -1466,9 +1373,6 @@
   </si>
   <si>
     <t>государственный, внебюджетный, фонд, определение, что, такое</t>
-  </si>
-  <si>
-    <t>бюджет, определение, что, такое</t>
   </si>
   <si>
     <t>инкассо, определение, что, такое</t>
@@ -1895,7 +1799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L125"/>
+  <dimension ref="A1:L117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1944,16 +1848,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="E2" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1961,16 +1865,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D3" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1978,16 +1882,16 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="E4" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1995,16 +1899,16 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="E5" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2012,16 +1916,16 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2029,16 +1933,16 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="D7" t="s">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2046,16 +1950,16 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C8" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="D8" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2063,16 +1967,16 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C9" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2080,16 +1984,16 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2097,16 +2001,16 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="D11" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2114,16 +2018,16 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E12" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2131,16 +2035,16 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="D13" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="E13" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2148,16 +2052,16 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2165,16 +2069,16 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="E15" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2182,16 +2086,16 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C16" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D16" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="E16" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2199,16 +2103,16 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C17" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="D17" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2216,16 +2120,16 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="E18" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2233,16 +2137,16 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="E19" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2250,16 +2154,16 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C20" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="E20" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2267,16 +2171,16 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C21" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="E21" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2284,16 +2188,16 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C22" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2301,16 +2205,16 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="D23" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="E23" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2318,16 +2222,16 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C24" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2335,16 +2239,16 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D25" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2352,16 +2256,16 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2369,16 +2273,16 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="D27" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2386,16 +2290,16 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C28" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D28" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2403,16 +2307,16 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C29" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D29" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="E29" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2420,16 +2324,16 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C30" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="D30" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="E30" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2437,16 +2341,16 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="D31" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2454,16 +2358,16 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C32" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="D32" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="E32" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2471,16 +2375,16 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C33" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="E33" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2488,16 +2392,16 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C34" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D34" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2505,16 +2409,16 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C35" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="D35" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2522,16 +2426,16 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C36" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2539,16 +2443,16 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2556,16 +2460,16 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2573,16 +2477,16 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C39" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="E39" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2590,16 +2494,16 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="D40" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2607,16 +2511,16 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="D41" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="E41" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2624,16 +2528,16 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C42" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="D42" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="E42" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2641,16 +2545,16 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C43" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="D43" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2658,16 +2562,16 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C44" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2675,16 +2579,16 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C45" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="D45" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="E45" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2692,16 +2596,16 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="E46" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2709,16 +2613,16 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C47" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="D47" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2726,16 +2630,16 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C48" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="D48" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2743,16 +2647,16 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C49" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="D49" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="E49" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2760,16 +2664,16 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C50" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="E50" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2777,16 +2681,16 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C51" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="D51" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E51" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2794,16 +2698,16 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="D52" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2811,16 +2715,16 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C53" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="D53" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="E53" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2828,16 +2732,16 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C54" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="D54" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2845,16 +2749,16 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D55" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E55" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2862,16 +2766,16 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C56" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="D56" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="E56" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2879,16 +2783,16 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="D57" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="E57" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2896,16 +2800,16 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="D58" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="E58" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2913,16 +2817,16 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C59" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="D59" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="E59" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2930,16 +2834,16 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="D60" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E60" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2947,16 +2851,16 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D61" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2964,16 +2868,16 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="D62" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E62" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2981,16 +2885,16 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="D63" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E63" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2998,16 +2902,16 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C64" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="D64" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E64" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3015,16 +2919,16 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C65" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="D65" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E65" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3032,16 +2936,16 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C66" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="D66" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E66" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3049,16 +2953,16 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C67" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="D67" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E67" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3066,16 +2970,16 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="D68" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E68" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3083,16 +2987,16 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C69" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="D69" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3100,16 +3004,16 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C70" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="D70" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3117,16 +3021,16 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C71" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="D71" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3134,16 +3038,16 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="D72" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="E72" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3151,16 +3055,16 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C73" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="D73" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="E73" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3168,16 +3072,16 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C74" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="D74" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="E74" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3185,16 +3089,16 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C75" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="D75" t="s">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="E75" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3202,16 +3106,16 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C76" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="D76" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="E76" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3219,16 +3123,16 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C77" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="D77" t="s">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="E77" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3236,16 +3140,16 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C78" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="D78" t="s">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="E78" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3253,16 +3157,16 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="D79" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="E79" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3270,16 +3174,16 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C80" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="D80" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="E80" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3287,16 +3191,16 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C81" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="D81" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="E81" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3304,16 +3208,16 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C82" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="D82" t="s">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="E82" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3321,16 +3225,16 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C83" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="D83" t="s">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="E83" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3338,16 +3242,16 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C84" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="D84" t="s">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="E84" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3355,16 +3259,16 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C85" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="D85" t="s">
-        <v>343</v>
+        <v>327</v>
       </c>
       <c r="E85" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3372,16 +3276,16 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C86" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="D86" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="E86" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3389,16 +3293,16 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="D87" t="s">
-        <v>345</v>
+        <v>329</v>
       </c>
       <c r="E87" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3406,16 +3310,16 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C88" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="D88" t="s">
-        <v>346</v>
+        <v>330</v>
       </c>
       <c r="E88" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3423,16 +3327,16 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C89" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="D89" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="E89" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3440,16 +3344,16 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="D90" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E90" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3457,16 +3361,16 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C91" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="D91" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="E91" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3474,16 +3378,16 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C92" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="D92" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E92" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3491,16 +3395,16 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C93" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="D93" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E93" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3508,16 +3412,16 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="D94" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E94" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3525,16 +3429,16 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C95" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="D95" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="E95" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3542,16 +3446,16 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C96" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="D96" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="E96" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3559,16 +3463,16 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C97" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="D97" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="E97" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3576,16 +3480,16 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C98" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D98" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="E98" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3593,16 +3497,16 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="D99" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E99" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3610,16 +3514,16 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C100" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="D100" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E100" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3627,16 +3531,16 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C101" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D101" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E101" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -3644,16 +3548,16 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C102" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="D102" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E102" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -3661,16 +3565,16 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D103" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E103" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -3678,16 +3582,16 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C104" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D104" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E104" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3695,16 +3599,16 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C105" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="D105" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E105" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3712,16 +3616,16 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C106" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="D106" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E106" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3729,16 +3633,16 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C107" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E107" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3746,16 +3650,16 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E108" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3763,16 +3667,16 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C109" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="D109" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E109" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3780,16 +3684,16 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C110" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D110" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E110" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3797,16 +3701,16 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C111" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="D111" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E111" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3814,16 +3718,16 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C112" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="D112" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E112" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3831,16 +3735,16 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C113" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D113" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E113" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3848,16 +3752,16 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C114" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D114" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E114" t="s">
-        <v>496</v>
+        <v>472</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3865,16 +3769,16 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D115" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="E115" t="s">
-        <v>497</v>
+        <v>473</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3882,16 +3786,16 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D116" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E116" t="s">
-        <v>498</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3899,152 +3803,16 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C117" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="D117" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E117" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" t="s">
-        <v>128</v>
-      </c>
-      <c r="B118" t="s">
-        <v>252</v>
-      </c>
-      <c r="C118" t="s">
-        <v>376</v>
-      </c>
-      <c r="D118" t="s">
-        <v>376</v>
-      </c>
-      <c r="E118" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" t="s">
-        <v>129</v>
-      </c>
-      <c r="B119" t="s">
-        <v>253</v>
-      </c>
-      <c r="C119" t="s">
-        <v>377</v>
-      </c>
-      <c r="D119" t="s">
-        <v>377</v>
-      </c>
-      <c r="E119" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" t="s">
-        <v>130</v>
-      </c>
-      <c r="B120" t="s">
-        <v>254</v>
-      </c>
-      <c r="C120" t="s">
-        <v>378</v>
-      </c>
-      <c r="D120" t="s">
-        <v>378</v>
-      </c>
-      <c r="E120" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" t="s">
-        <v>131</v>
-      </c>
-      <c r="B121" t="s">
-        <v>255</v>
-      </c>
-      <c r="C121" t="s">
-        <v>379</v>
-      </c>
-      <c r="D121" t="s">
-        <v>379</v>
-      </c>
-      <c r="E121" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" t="s">
-        <v>132</v>
-      </c>
-      <c r="B122" t="s">
-        <v>256</v>
-      </c>
-      <c r="C122" t="s">
-        <v>380</v>
-      </c>
-      <c r="D122" t="s">
-        <v>380</v>
-      </c>
-      <c r="E122" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" t="s">
-        <v>133</v>
-      </c>
-      <c r="B123" t="s">
-        <v>257</v>
-      </c>
-      <c r="C123" t="s">
-        <v>381</v>
-      </c>
-      <c r="D123" t="s">
-        <v>381</v>
-      </c>
-      <c r="E123" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" t="s">
-        <v>134</v>
-      </c>
-      <c r="B124" t="s">
-        <v>258</v>
-      </c>
-      <c r="C124" t="s">
-        <v>382</v>
-      </c>
-      <c r="D124" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" t="s">
-        <v>135</v>
-      </c>
-      <c r="B125" t="s">
-        <v>259</v>
-      </c>
-      <c r="C125" t="s">
-        <v>383</v>
-      </c>
-      <c r="D125" t="s">
-        <v>383</v>
-      </c>
-      <c r="E125" t="s">
-        <v>507</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -1156,10 +1156,10 @@
     <t xml:space="preserve">33.92</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое ценных бумаг форма выпуска?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ценных бумаг форма выпуска – это форма выпуска ценных бумаг, при которой инвестор устанавливается на основании предъявления оформленного надлежащим образом сертификата ценной бумаги или, в случае депонирования такового данного сертификата и записи по счету депо.</t>
+    <t xml:space="preserve">Что такое форма выпуска ценных бумаг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Форма выпуска ценных бумаг – это такая форма выпуска, при которой инвестор устанавливается на основании предъявления оформленного надлежащим образом сертификата ценной бумаги или, в случае депонирования такового данного сертификата и записи по счету депо.</t>
   </si>
   <si>
     <t xml:space="preserve">ценный, бумага, форма, выпуск, определение, что, такое</t>
@@ -1569,8 +1569,8 @@
   </sheetPr>
   <dimension ref="A1:L117"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B116" activeCellId="0" sqref="B116"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3163,7 +3163,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
         <v>377</v>
       </c>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="471">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -169,10 +169,10 @@
     <t xml:space="preserve">33.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое валюта свободно-конвертируемая?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валюта свободно-конвертируемая – это валюта, свободно и неограниченно обмениваемая на другие иностранные валюты.</t>
+    <t xml:space="preserve">Что такое свободно-конвертируемая валюта?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свободно-конвертируемая валюта – это валюта, свободно и неограниченно обмениваемая на другие иностранные валюты.</t>
   </si>
   <si>
     <t xml:space="preserve">валюта, свободно, конвертировать, определение, что, такое</t>
@@ -301,10 +301,10 @@
     <t xml:space="preserve">33.21</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое бюджета расходы?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюджета расходы – это денежные средства, направляемые на финансовое обеспечение задач и функций государства и местного самоуправления.</t>
+    <t xml:space="preserve">Что такое расходы бюджета?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Расходы бюджета – это денежные средства, направляемые на финансовое обеспечение задач и функций государства и местного самоуправления.</t>
   </si>
   <si>
     <t xml:space="preserve">бюджет, расход, определение, что, такое</t>
@@ -319,9 +319,6 @@
     <t xml:space="preserve">Доходы бюджета – это денежные средства, поступающие в безвозмездном и безвозвратном порядке в соответствии с законодательством Российской Федерации в распоряжение органов государственной власти Российской Федерации, органов государственной власти субъектов Российской Федерации и органов местного самоуправления.</t>
   </si>
   <si>
-    <t xml:space="preserve">Бюджета доходы – это денежные средства, поступающие в безвозмездном и безвозвратном порядке в соответствии с законодательством Российской Федерации в распоряжение органов государственной власти Российской Федерации, органов государственной власти субъектов Российской Федерации и органов местного самоуправления.</t>
-  </si>
-  <si>
     <t xml:space="preserve">бюджет, доход, определение, что, такое</t>
   </si>
   <si>
@@ -496,10 +493,10 @@
     <t xml:space="preserve">33.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое ценных бумаг обращение?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ценных бумаг обращение – это заключение гражданско-правовых сделок, влекущих переход права собственности на ценные бумаги.</t>
+    <t xml:space="preserve">Что такое обращение ценных бумаг?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Обращение ценных бумаг – это заключение гражданско-правовых сделок, влекущих переход права собственности на ценные бумаги.</t>
   </si>
   <si>
     <t xml:space="preserve">ценный, бумага, обращение, определение, что, такое</t>
@@ -517,18 +514,6 @@
     <t xml:space="preserve">недвижимый, вещь, недвижимый, имущество, недвижимость, определение, что, такое</t>
   </si>
   <si>
-    <t xml:space="preserve">33.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что такое дефляция?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дефляция – это изъятие государством из обращения части обращающихся избыточных денежных средств с целью снижения инфляции.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дефляция, определение, что, такое</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.40</t>
   </si>
   <si>
@@ -736,13 +721,13 @@
     <t xml:space="preserve">33.57</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое бюджетная система Российской Федерации?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюджетная система Российской Федерации – это основанная на экономических отношениях и государственном устройстве Российской Федерации, регулируемая нормами права совокупность федерального бюджета, бюджетов субъектов Российской Федерации, местных бюджетов и бюджетов государственных внебюджетных фондов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджетный, система, российский, федерация, определение, что, такое</t>
+    <t xml:space="preserve">Что такое облигации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облигации - это долговые ценные бумаги, предполагающие право их владельца на обратную продажу в оговоренный срок, а также право на получение заранее установленного дохода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">облигация, определение, что, такое</t>
   </si>
   <si>
     <t xml:space="preserve">33.58</t>
@@ -904,7 +889,7 @@
     <t xml:space="preserve">33.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое должник, предприятие-должник?</t>
+    <t xml:space="preserve">Что такое предприятие-должник?</t>
   </si>
   <si>
     <t xml:space="preserve">Должник, предприятие-должник – это предприятие, которое не выполняет или в ближайшее время не сможет выполнить свои обязательства перед кредиторами. Законодательство Российской Федерации ввело понятие несостоятельного должника (банкрота).</t>
@@ -1232,9 +1217,6 @@
   </si>
   <si>
     <t xml:space="preserve">Облигация – это ценная бумага удостоверяющая право ее держателя на получение от лица выпустившего облигацию в предусмотренный ею срок номинальной стоимости облигации или иного имущественного эквивалента. Облигация предоставляет ее держателю также право на по лучение фиксированного в ней процента от номинальной стоимости облигации либо иные имущественные права.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">облигация, определение, что, такое</t>
   </si>
   <si>
     <t xml:space="preserve">33.99</t>
@@ -1567,18 +1549,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A89" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B117" activeCellId="0" sqref="B117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1632,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1649,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1666,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>28</v>
       </c>
@@ -1701,7 +1683,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1700,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1717,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1734,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +1751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>52</v>
       </c>
@@ -1803,7 +1785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>56</v>
       </c>
@@ -1820,7 +1802,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>60</v>
       </c>
@@ -1837,7 +1819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>64</v>
       </c>
@@ -1854,7 +1836,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>68</v>
       </c>
@@ -1871,7 +1853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
@@ -1888,7 +1870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>76</v>
       </c>
@@ -1905,7 +1887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>80</v>
       </c>
@@ -1922,7 +1904,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>84</v>
       </c>
@@ -1939,7 +1921,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>88</v>
       </c>
@@ -1956,7 +1938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>92</v>
       </c>
@@ -1973,7 +1955,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>96</v>
       </c>
@@ -1984,1608 +1966,1591 @@
         <v>98</v>
       </c>
       <c r="D23" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="E23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="D24" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="B25" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="D25" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="B26" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="D26" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="D27" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="D28" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="D29" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B30" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="C30" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="D30" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="C31" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="D31" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="C32" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="D32" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="C33" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="D33" s="0" t="s">
+        <v>138</v>
+      </c>
+      <c r="E33" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="C34" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D34" s="0" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E34" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="C35" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="D35" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="D35" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="E35" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B36" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="C36" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="D36" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D36" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="E36" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="C37" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="D37" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="E37" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="C38" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="D38" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="E38" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="0" t="s">
         <v>161</v>
       </c>
-      <c r="B39" s="0" t="s">
+      <c r="C39" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="D39" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="E39" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D39" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39" s="0" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="B40" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="C40" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="D40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="E40" s="0" t="s">
         <v>167</v>
       </c>
-      <c r="D40" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="B41" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="C41" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="D41" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="D41" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="E41" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="C42" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="D42" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="E42" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="E42" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="C43" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="D43" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>179</v>
-      </c>
-      <c r="E43" s="0" t="s">
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="D44" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="E44" s="0" t="s">
         <v>183</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>183</v>
-      </c>
-      <c r="E44" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="C45" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>187</v>
-      </c>
-      <c r="E45" s="0" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>189</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="D46" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="E46" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="D46" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="E46" s="0" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="B47" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="C47" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="D47" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="0" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="E47" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="0" t="s">
+      <c r="C48" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="D48" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="0" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="E48" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="s">
         <v>201</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="C49" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="D49" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B50" s="0" t="s">
         <v>205</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="C50" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="D50" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="E50" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="E50" s="0" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B51" s="0" t="s">
         <v>209</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="D51" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D51" s="0" t="s">
-        <v>211</v>
-      </c>
-      <c r="E51" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="B52" s="0" t="s">
         <v>213</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="D52" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>215</v>
-      </c>
-      <c r="E52" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B53" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="C53" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="0" t="s">
         <v>219</v>
       </c>
-      <c r="D53" s="0" t="s">
-        <v>219</v>
-      </c>
-      <c r="E53" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>221</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="D54" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="E54" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="D54" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="E54" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B55" s="0" t="s">
         <v>225</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="C55" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="D55" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="E55" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="E55" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B56" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="C56" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="D56" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="E56" s="0" t="s">
         <v>231</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" s="0" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B57" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="C57" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="D57" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="E57" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="E57" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="B58" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="C58" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="D58" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="D58" s="0" t="s">
-        <v>239</v>
-      </c>
-      <c r="E58" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B59" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="C59" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="D59" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="D59" s="0" t="s">
-        <v>243</v>
-      </c>
-      <c r="E59" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="B60" s="0" t="s">
         <v>245</v>
       </c>
-      <c r="B60" s="0" t="s">
+      <c r="C60" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="D60" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D60" s="0" t="s">
-        <v>247</v>
-      </c>
-      <c r="E60" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B61" s="0" t="s">
+      <c r="C61" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="D61" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="D61" s="0" t="s">
-        <v>251</v>
-      </c>
-      <c r="E61" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="B62" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="C62" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="D62" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="D62" s="0" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="B63" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B63" s="0" t="s">
+      <c r="C63" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="D63" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D63" s="0" t="s">
-        <v>259</v>
-      </c>
-      <c r="E63" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="B64" s="0" t="s">
         <v>261</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="C64" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="D64" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D64" s="0" t="s">
-        <v>263</v>
-      </c>
-      <c r="E64" s="0" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="B65" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="C65" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="D65" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="E65" s="0" t="s">
         <v>267</v>
       </c>
-      <c r="D65" s="0" t="s">
-        <v>267</v>
-      </c>
-      <c r="E65" s="0" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="B66" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="C66" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="D66" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="E66" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D66" s="0" t="s">
-        <v>271</v>
-      </c>
-      <c r="E66" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="B67" s="0" t="s">
         <v>273</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="C67" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="D67" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="E67" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="B68" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="C68" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="D68" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" s="0" t="s">
         <v>279</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="B69" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="C69" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="D69" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D69" s="0" t="s">
-        <v>283</v>
-      </c>
-      <c r="E69" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="B70" s="0" t="s">
         <v>285</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="C70" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="D70" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="D70" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="E70" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="B71" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="B71" s="0" t="s">
+      <c r="C71" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="D71" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="E71" s="0" t="s">
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="B72" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="C72" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="D72" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E72" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="D72" s="0" t="s">
-        <v>295</v>
-      </c>
-      <c r="E72" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="B73" s="0" t="s">
         <v>297</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="C73" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="D73" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="D73" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="E73" s="0" t="s">
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="B74" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="C74" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="D74" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="0" t="s">
         <v>303</v>
       </c>
-      <c r="D74" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="0" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="B75" s="0" t="s">
         <v>305</v>
       </c>
-      <c r="B75" s="0" t="s">
+      <c r="C75" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="D75" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="D75" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="E75" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="B76" s="0" t="s">
         <v>309</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="C76" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="D76" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="E76" s="0" t="s">
         <v>311</v>
       </c>
-      <c r="D76" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="E76" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="B77" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="B77" s="0" t="s">
+      <c r="C77" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="D77" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="E77" s="0" t="s">
         <v>315</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="E77" s="0" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="B78" s="0" t="s">
         <v>317</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="C78" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="D78" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="E78" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="D78" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E78" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="B79" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="C79" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="D79" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" s="0" t="s">
         <v>323</v>
       </c>
-      <c r="D79" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="E79" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="B80" s="0" t="s">
         <v>325</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="C80" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="D80" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D80" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="E80" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="B81" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="C81" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="D81" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="E81" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="E81" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="B82" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="C82" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="D82" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="E82" s="0" t="s">
         <v>335</v>
       </c>
-      <c r="D82" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="E82" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="B83" s="0" t="s">
         <v>337</v>
       </c>
-      <c r="B83" s="0" t="s">
+      <c r="C83" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="D83" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="E83" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D83" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="E83" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="B84" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="C84" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="D84" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="E84" s="0" t="s">
         <v>343</v>
       </c>
-      <c r="D84" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="E84" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="B85" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="C85" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="D85" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="E85" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="D85" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="E85" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="B86" s="0" t="s">
         <v>349</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="C86" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="D86" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="E86" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D86" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="E86" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="B87" s="0" t="s">
         <v>353</v>
       </c>
-      <c r="B87" s="0" t="s">
+      <c r="C87" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="E87" s="0" t="s">
         <v>355</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="E87" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="B88" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="C88" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="D88" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="E88" s="0" t="s">
         <v>359</v>
       </c>
-      <c r="D88" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="E88" s="0" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="B89" s="0" t="s">
         <v>361</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="C89" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="D89" s="0" t="s">
+        <v>362</v>
+      </c>
+      <c r="E89" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="E89" s="0" t="s">
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="B90" s="0" t="s">
         <v>365</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="C90" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="D90" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="E90" s="0" t="s">
         <v>367</v>
       </c>
-      <c r="D90" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="E90" s="0" t="s">
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="B91" s="0" t="s">
         <v>369</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="C91" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="D91" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="E91" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="D91" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="E91" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="B92" s="0" t="s">
         <v>373</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="C92" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="D92" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="E92" s="0" t="s">
         <v>375</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="0" t="s">
         <v>377</v>
       </c>
-      <c r="B93" s="0" t="s">
+      <c r="C93" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>378</v>
+      </c>
+      <c r="E93" s="0" t="s">
         <v>379</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="E93" s="0" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="B94" s="0" t="s">
         <v>381</v>
       </c>
-      <c r="B94" s="0" t="s">
+      <c r="C94" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="D94" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="E94" s="0" t="s">
         <v>383</v>
       </c>
-      <c r="D94" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="E94" s="0" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="B95" s="0" t="s">
         <v>385</v>
       </c>
-      <c r="B95" s="0" t="s">
+      <c r="C95" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="D95" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="E95" s="0" t="s">
         <v>387</v>
       </c>
-      <c r="D95" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="E95" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="B96" s="0" t="s">
         <v>389</v>
       </c>
-      <c r="B96" s="0" t="s">
+      <c r="C96" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="D96" s="0" t="s">
+        <v>390</v>
+      </c>
+      <c r="E96" s="0" t="s">
         <v>391</v>
       </c>
-      <c r="D96" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="E96" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="B97" s="0" t="s">
         <v>393</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="C97" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="D97" s="0" t="s">
+        <v>394</v>
+      </c>
+      <c r="E97" s="0" t="s">
         <v>395</v>
       </c>
-      <c r="D97" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="E97" s="0" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="B98" s="0" t="s">
         <v>397</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="C98" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="D98" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>399</v>
       </c>
-      <c r="D98" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="E98" s="0" t="s">
+      <c r="B99" s="0" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="E99" s="0" t="s">
+      <c r="B100" s="0" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E100" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="E101" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="E102" s="0" t="s">
+      <c r="B103" s="0" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="E103" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="E104" s="0" t="s">
+      <c r="B105" s="0" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="E105" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="E106" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="E107" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="E108" s="0" t="s">
+      <c r="B109" s="0" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E109" s="0" t="s">
+      <c r="B110" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="D110" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="E110" s="0" t="s">
+      <c r="B111" s="0" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="E111" s="0" t="s">
+      <c r="B112" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="E112" s="0" t="s">
+      <c r="B113" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="D113" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="E113" s="0" t="s">
+      <c r="B114" s="0" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E114" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E115" s="0" t="s">
+      <c r="B116" s="0" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>470</v>
-      </c>
-      <c r="C116" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="472">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -517,18 +517,6 @@
     <t xml:space="preserve">недвижимый, вещь, недвижимый, имущество, недвижимость, определение, что, такое</t>
   </si>
   <si>
-    <t xml:space="preserve">33.39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Что такое дефляция?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дефляция – это изъятие государством из обращения части обращающихся избыточных денежных средств с целью снижения инфляции.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">дефляция, определение, что, такое</t>
-  </si>
-  <si>
     <t xml:space="preserve">33.40</t>
   </si>
   <si>
@@ -736,13 +724,13 @@
     <t xml:space="preserve">33.57</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое бюджетная система Российской Федерации?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бюджетная система Российской Федерации – это основанная на экономических отношениях и государственном устройстве Российской Федерации, регулируемая нормами права совокупность федерального бюджета, бюджетов субъектов Российской Федерации, местных бюджетов и бюджетов государственных внебюджетных фондов.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">бюджетный, система, российский, федерация, определение, что, такое</t>
+    <t xml:space="preserve">Что такое облигации?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Облигации - это долговые ценные бумаги, предполагающие право их владельца на обратную продажу в оговоренный срок, а также право на получение заранее установленного дохода.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">облигация, определение, что, такое</t>
   </si>
   <si>
     <t xml:space="preserve">33.58</t>
@@ -904,7 +892,7 @@
     <t xml:space="preserve">33.71</t>
   </si>
   <si>
-    <t xml:space="preserve">Что такое должник, предприятие-должник?</t>
+    <t xml:space="preserve">Что такое предприятие-должник?</t>
   </si>
   <si>
     <t xml:space="preserve">Должник, предприятие-должник – это предприятие, которое не выполняет или в ближайшее время не сможет выполнить свои обязательства перед кредиторами. Законодательство Российской Федерации ввело понятие несостоятельного должника (банкрота).</t>
@@ -1232,9 +1220,6 @@
   </si>
   <si>
     <t xml:space="preserve">Облигация – это ценная бумага удостоверяющая право ее держателя на получение от лица выпустившего облигацию в предусмотренный ею срок номинальной стоимости облигации или иного имущественного эквивалента. Облигация предоставляет ее держателю также право на по лучение фиксированного в ней процента от номинальной стоимости облигации либо иные имущественные права.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">облигация, определение, что, такое</t>
   </si>
   <si>
     <t xml:space="preserve">33.99</t>
@@ -1567,18 +1552,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B93" activeCellId="0" sqref="B93"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E71" activeCellId="0" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1616,7 +1601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1618,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>16</v>
       </c>
@@ -1650,7 +1635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>20</v>
       </c>
@@ -1667,7 +1652,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
@@ -1684,7 +1669,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>28</v>
       </c>
@@ -1701,7 +1686,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1703,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>36</v>
       </c>
@@ -1735,7 +1720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>40</v>
       </c>
@@ -1752,7 +1737,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>44</v>
       </c>
@@ -1769,7 +1754,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>48</v>
       </c>
@@ -1786,7 +1771,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>52</v>
       </c>
@@ -1803,7 +1788,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>56</v>
       </c>
@@ -1820,7 +1805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>60</v>
       </c>
@@ -1837,7 +1822,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>64</v>
       </c>
@@ -1854,7 +1839,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>68</v>
       </c>
@@ -1871,7 +1856,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>72</v>
       </c>
@@ -1888,7 +1873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>76</v>
       </c>
@@ -1905,7 +1890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>80</v>
       </c>
@@ -1922,7 +1907,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>84</v>
       </c>
@@ -1939,7 +1924,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>88</v>
       </c>
@@ -1956,7 +1941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>92</v>
       </c>
@@ -1973,7 +1958,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>96</v>
       </c>
@@ -1990,7 +1975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>101</v>
       </c>
@@ -2007,7 +1992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>105</v>
       </c>
@@ -2024,7 +2009,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>109</v>
       </c>
@@ -2041,7 +2026,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>113</v>
       </c>
@@ -2058,7 +2043,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>117</v>
       </c>
@@ -2075,7 +2060,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>121</v>
       </c>
@@ -2092,7 +2077,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>125</v>
       </c>
@@ -2109,7 +2094,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>129</v>
       </c>
@@ -2126,7 +2111,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>133</v>
       </c>
@@ -2143,7 +2128,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>137</v>
       </c>
@@ -2160,7 +2145,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>141</v>
       </c>
@@ -2177,7 +2162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>145</v>
       </c>
@@ -2194,7 +2179,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>149</v>
       </c>
@@ -2211,7 +2196,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>153</v>
       </c>
@@ -2228,7 +2213,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>157</v>
       </c>
@@ -2245,7 +2230,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>161</v>
       </c>
@@ -2262,7 +2247,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>165</v>
       </c>
@@ -2279,7 +2264,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>169</v>
       </c>
@@ -2296,7 +2281,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>173</v>
       </c>
@@ -2313,7 +2298,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>177</v>
       </c>
@@ -2330,7 +2315,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>181</v>
       </c>
@@ -2347,7 +2332,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>185</v>
       </c>
@@ -2364,7 +2349,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>189</v>
       </c>
@@ -2381,7 +2366,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>193</v>
       </c>
@@ -2398,7 +2383,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>197</v>
       </c>
@@ -2415,7 +2400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>201</v>
       </c>
@@ -2432,7 +2417,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>205</v>
       </c>
@@ -2449,7 +2434,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>209</v>
       </c>
@@ -2466,7 +2451,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>213</v>
       </c>
@@ -2483,7 +2468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>217</v>
       </c>
@@ -2500,7 +2485,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>221</v>
       </c>
@@ -2517,7 +2502,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>225</v>
       </c>
@@ -2534,7 +2519,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>229</v>
       </c>
@@ -2551,7 +2536,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>233</v>
       </c>
@@ -2568,7 +2553,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>237</v>
       </c>
@@ -2585,7 +2570,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>241</v>
       </c>
@@ -2602,7 +2587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>245</v>
       </c>
@@ -2619,7 +2604,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>249</v>
       </c>
@@ -2636,7 +2621,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
         <v>253</v>
       </c>
@@ -2653,7 +2638,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>257</v>
       </c>
@@ -2670,7 +2655,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>261</v>
       </c>
@@ -2687,7 +2672,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>265</v>
       </c>
@@ -2704,7 +2689,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>269</v>
       </c>
@@ -2721,7 +2706,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>273</v>
       </c>
@@ -2738,7 +2723,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>277</v>
       </c>
@@ -2755,7 +2740,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>281</v>
       </c>
@@ -2772,7 +2757,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>285</v>
       </c>
@@ -2789,7 +2774,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>289</v>
       </c>
@@ -2806,7 +2791,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>293</v>
       </c>
@@ -2823,7 +2808,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>297</v>
       </c>
@@ -2840,7 +2825,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>301</v>
       </c>
@@ -2857,7 +2842,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>305</v>
       </c>
@@ -2874,7 +2859,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>309</v>
       </c>
@@ -2891,7 +2876,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>313</v>
       </c>
@@ -2908,7 +2893,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>317</v>
       </c>
@@ -2925,7 +2910,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>321</v>
       </c>
@@ -2942,7 +2927,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>325</v>
       </c>
@@ -2959,7 +2944,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>329</v>
       </c>
@@ -2976,7 +2961,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>333</v>
       </c>
@@ -2993,7 +2978,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>337</v>
       </c>
@@ -3010,7 +2995,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>341</v>
       </c>
@@ -3027,7 +3012,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
         <v>345</v>
       </c>
@@ -3044,7 +3029,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
         <v>349</v>
       </c>
@@ -3061,7 +3046,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
         <v>353</v>
       </c>
@@ -3078,7 +3063,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
         <v>357</v>
       </c>
@@ -3095,7 +3080,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>361</v>
       </c>
@@ -3112,7 +3097,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>365</v>
       </c>
@@ -3129,7 +3114,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>369</v>
       </c>
@@ -3146,7 +3131,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
         <v>373</v>
       </c>
@@ -3180,7 +3165,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
         <v>381</v>
       </c>
@@ -3197,7 +3182,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
         <v>385</v>
       </c>
@@ -3214,7 +3199,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
         <v>389</v>
       </c>
@@ -3231,7 +3216,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
         <v>393</v>
       </c>
@@ -3248,7 +3233,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
         <v>397</v>
       </c>
@@ -3262,330 +3247,313 @@
         <v>399</v>
       </c>
       <c r="E98" s="0" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="B99" s="0" t="s">
         <v>401</v>
       </c>
-      <c r="B99" s="0" t="s">
+      <c r="C99" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="D99" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="E99" s="0" t="s">
         <v>403</v>
       </c>
-      <c r="D99" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="E99" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="B100" s="0" t="s">
         <v>405</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="C100" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D100" s="0" t="s">
+        <v>406</v>
+      </c>
+      <c r="E100" s="0" t="s">
         <v>407</v>
       </c>
-      <c r="D100" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="E100" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="B101" s="0" t="s">
         <v>409</v>
       </c>
-      <c r="B101" s="0" t="s">
+      <c r="C101" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="D101" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="E101" s="0" t="s">
         <v>411</v>
       </c>
-      <c r="D101" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="E101" s="0" t="s">
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="B102" s="0" t="s">
         <v>413</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="C102" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="D102" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="E102" s="0" t="s">
         <v>415</v>
       </c>
-      <c r="D102" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="E102" s="0" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="B103" s="0" t="s">
         <v>417</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="C103" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="D103" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="E103" s="0" t="s">
         <v>419</v>
       </c>
-      <c r="D103" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="E103" s="0" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="B104" s="0" t="s">
         <v>421</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="C104" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="D104" s="0" t="s">
+        <v>422</v>
+      </c>
+      <c r="E104" s="0" t="s">
         <v>423</v>
       </c>
-      <c r="D104" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="E104" s="0" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="B105" s="0" t="s">
         <v>425</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="C105" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="D105" s="0" t="s">
+        <v>426</v>
+      </c>
+      <c r="E105" s="0" t="s">
         <v>427</v>
       </c>
-      <c r="D105" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="E105" s="0" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="B106" s="0" t="s">
         <v>429</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="C106" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="D106" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="E106" s="0" t="s">
         <v>431</v>
       </c>
-      <c r="D106" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="E106" s="0" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="B107" s="0" t="s">
         <v>433</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="C107" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="D107" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="E107" s="0" t="s">
         <v>435</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="E107" s="0" t="s">
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="B108" s="0" t="s">
         <v>437</v>
       </c>
-      <c r="B108" s="0" t="s">
+      <c r="C108" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="D108" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="E108" s="0" t="s">
         <v>439</v>
       </c>
-      <c r="D108" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="E108" s="0" t="s">
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="B109" s="0" t="s">
         <v>441</v>
       </c>
-      <c r="B109" s="0" t="s">
+      <c r="C109" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="D109" s="0" t="s">
+        <v>442</v>
+      </c>
+      <c r="E109" s="0" t="s">
         <v>443</v>
       </c>
-      <c r="D109" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="E109" s="0" t="s">
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="B110" s="0" t="s">
         <v>445</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="C110" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="D110" s="0" t="s">
+        <v>446</v>
+      </c>
+      <c r="E110" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="D110" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="E110" s="0" t="s">
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="B111" s="0" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="C111" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="C111" s="0" t="s">
+      <c r="D111" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="E111" s="0" t="s">
         <v>451</v>
       </c>
-      <c r="D111" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="E111" s="0" t="s">
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="B112" s="0" t="s">
         <v>453</v>
       </c>
-      <c r="B112" s="0" t="s">
+      <c r="C112" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="D112" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="E112" s="0" t="s">
         <v>455</v>
       </c>
-      <c r="D112" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="E112" s="0" t="s">
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="B113" s="0" t="s">
         <v>457</v>
       </c>
-      <c r="B113" s="0" t="s">
+      <c r="C113" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="D113" s="0" t="s">
+        <v>458</v>
+      </c>
+      <c r="E113" s="0" t="s">
         <v>459</v>
       </c>
-      <c r="D113" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="E113" s="0" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="B114" s="0" t="s">
         <v>461</v>
       </c>
-      <c r="B114" s="0" t="s">
+      <c r="C114" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="D114" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="E114" s="0" t="s">
         <v>463</v>
       </c>
-      <c r="D114" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="E114" s="0" t="s">
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="B115" s="0" t="s">
         <v>465</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="C115" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="D115" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="E115" s="0" t="s">
         <v>467</v>
       </c>
-      <c r="D115" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="E115" s="0" t="s">
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="B116" s="0" t="s">
         <v>469</v>
       </c>
-      <c r="B116" s="0" t="s">
+      <c r="C116" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="D116" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="E116" s="0" t="s">
         <v>471</v>
-      </c>
-      <c r="D116" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="E116" s="0" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B117" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="C117" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="D117" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="E117" s="0" t="s">
-        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -1495,10 +1495,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1816,16 +1819,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="68" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" style="2" customWidth="1"/>
+    <col min="6" max="1025" width="8.5703125" style="2"/>
+    <col min="1026" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1863,1963 +1872,1963 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="2" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="2" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="2" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="2" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:5" ht="375" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="2" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="2" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="2" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="2" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="2" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="2" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="2" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="2" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="2" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="2" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="2" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="2" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="2" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="2" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="2" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="2" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="2" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="2" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="101" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+    <row r="102" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+    <row r="103" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="2" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+    <row r="104" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+    <row r="105" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="107" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="2" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="108" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="2" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="2" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+    <row r="110" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="2" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+    <row r="111" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="2" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+    <row r="112" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="113" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="2" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="2" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+    <row r="115" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+    <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="2" t="s">
         <v>470</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -605,15 +605,9 @@
     <t>33.47</t>
   </si>
   <si>
-    <t>Что такое оферент?</t>
-  </si>
-  <si>
     <t>Оферент – это лицо выступающее с офертой.</t>
   </si>
   <si>
-    <t>оферент, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.48</t>
   </si>
   <si>
@@ -821,15 +815,9 @@
     <t>33.65</t>
   </si>
   <si>
-    <t>Что такое маклер?</t>
-  </si>
-  <si>
     <t>Маклер – это посредник при заключении сделок на фондовых и товарных биржах, который действует по поручению клиентов и за их счет.</t>
   </si>
   <si>
-    <t>маклер, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.66</t>
   </si>
   <si>
@@ -1097,15 +1085,9 @@
     <t>33.88</t>
   </si>
   <si>
-    <t>Что такое инвесторы?</t>
-  </si>
-  <si>
     <t>Инвесторы – это субъекты хозяйствования (органы государственного управления, направляющие денежные средства на покрытие срочных и длительных потребностей), лица, которым ценные бумаги принадлежат на праве собственности (собственники) или ином вещном праве (владельцы).</t>
   </si>
   <si>
-    <t>инвестор, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.89</t>
   </si>
   <si>
@@ -1133,15 +1115,9 @@
     <t>33.91</t>
   </si>
   <si>
-    <t>Что такое конкурсный кредитор?</t>
-  </si>
-  <si>
     <t>Конкурсный кредитор – это физическое или юридическое лицо, имеющее имущественные требования к должнику и не являющееся носителем залоговых прав.</t>
   </si>
   <si>
-    <t>конкурсный, кредитор, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.92</t>
   </si>
   <si>
@@ -1334,27 +1310,15 @@
     <t>33.108</t>
   </si>
   <si>
-    <t>Что такое сберегатели?</t>
-  </si>
-  <si>
     <t>Сберегатели – это юридические и физические лица, накапливающие денежные средства в связи с тем, что расходы меньше накопленных средств, сосредоточенных на руках в виде на личности или на счетах в банках (население, предприятия и государство).</t>
   </si>
   <si>
-    <t>сберегатель, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.109</t>
   </si>
   <si>
-    <t>Что такое эмитенты?</t>
-  </si>
-  <si>
     <t>Эмитенты – это юридические лица, которые могут выпускать ценные бумаги. С помощью финансового рынка денежные накопления сберегателей привлекаются для инвестирования затрат на развитие производства, осуществление государственных и региональных целевых программ и других нужд. Объективной предпосылкой является несовпадение потребностей в финансовых ресурсах у субъектов хозяйствования с наличием источников финансовых ресурсов.</t>
   </si>
   <si>
-    <t>эмитент, определение, что, такое</t>
-  </si>
-  <si>
     <t>33.110</t>
   </si>
   <si>
@@ -1437,6 +1401,42 @@
   </si>
   <si>
     <t>государственный, облигация, определение, что, такое</t>
+  </si>
+  <si>
+    <t>Кто такие инвесторы?</t>
+  </si>
+  <si>
+    <t>инвестор, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Кто такой конкурсный кредитор?</t>
+  </si>
+  <si>
+    <t>конкурсный, кредитор, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Кто такие сберегатели?</t>
+  </si>
+  <si>
+    <t>сберегатель, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Кто такие эмитенты?</t>
+  </si>
+  <si>
+    <t>эмитент, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Кто такой оферент?</t>
+  </si>
+  <si>
+    <t>оферент, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Кто такой маклер?</t>
+  </si>
+  <si>
+    <t>маклер, определение, что, такое, кто</t>
   </si>
 </sst>
 </file>
@@ -1819,8 +1819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,7 +1872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -1974,7 +1974,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>44</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>48</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>56</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>60</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>64</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>68</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>72</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>84</v>
       </c>
@@ -2212,7 +2212,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>92</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>100</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>132</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>136</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>144</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>148</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>152</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>156</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>160</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>168</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>172</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>180</v>
       </c>
@@ -2637,1194 +2637,1194 @@
         <v>191</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C52" s="2" t="s">
+    </row>
+    <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="195" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C53" s="2" t="s">
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D53" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>225</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C56" s="2" t="s">
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D56" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="C57" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="2" t="s">
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="2" t="s">
+    </row>
+    <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="B62" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="C62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C62" s="2" t="s">
+    </row>
+    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D62" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E62" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="2" t="s">
+    </row>
+    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="D64" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="E64" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>266</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>267</v>
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C67" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B68" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E68" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E69" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C70" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E70" s="2" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E71" s="2" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E73" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B74" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C75" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C77" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+    <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C80" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B81" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E81" s="2" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B84" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C84" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B86" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C86" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E86" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+    <row r="87" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E87" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+    <row r="88" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B88" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C87" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>358</v>
-      </c>
       <c r="D88" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>359</v>
+        <v>460</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B92" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="E90" s="2" t="s">
+      <c r="E92" s="2" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="E91" s="2" t="s">
+      <c r="E93" s="2" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E96" s="2" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D97" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="E95" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>440</v>
+        <v>465</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="468">
   <si>
     <t>id</t>
   </si>
@@ -714,15 +714,6 @@
   </si>
   <si>
     <t>налоговый, инспекция, определение, что, такое</t>
-  </si>
-  <si>
-    <t>33.57</t>
-  </si>
-  <si>
-    <t>Что такое облигации?</t>
-  </si>
-  <si>
-    <t>Облигации - это долговые ценные бумаги, предполагающие право их владельца на обратную продажу в оговоренный срок, а также право на получение заранее установленного дохода.</t>
   </si>
   <si>
     <t>облигация, определение, что, такое</t>
@@ -1817,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L116"/>
+  <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2642,7 +2633,7 @@
         <v>192</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>193</v>
@@ -2651,7 +2642,7 @@
         <v>193</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2807,131 +2798,131 @@
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>259</v>
+        <v>466</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>260</v>
@@ -2940,15 +2931,15 @@
         <v>260</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>469</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>263</v>
@@ -2957,372 +2948,372 @@
         <v>263</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>349</v>
+        <v>456</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>350</v>
@@ -3331,15 +3322,15 @@
         <v>350</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="B88" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>353</v>
@@ -3348,32 +3339,32 @@
         <v>353</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>359</v>
+        <v>458</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>360</v>
@@ -3382,15 +3373,15 @@
         <v>360</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="B91" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>461</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>363</v>
@@ -3399,112 +3390,112 @@
         <v>363</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>388</v>
       </c>
@@ -3518,151 +3509,151 @@
         <v>390</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>424</v>
+        <v>460</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>425</v>
@@ -3671,32 +3662,32 @@
         <v>425</v>
       </c>
       <c r="E107" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="B108" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C108" s="2" t="s">
+    </row>
+    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="B109" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>465</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>430</v>
@@ -3705,126 +3696,109 @@
         <v>430</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="469">
   <si>
     <t>id</t>
   </si>
@@ -77,12 +77,6 @@
     <t>33.2</t>
   </si>
   <si>
-    <t>Что такое центральные банки?</t>
-  </si>
-  <si>
-    <t>Центральные банки – это банки, осуществляющие выпуск банкнот и являющиеся центрами кредитной системы. Они занимают в ней особое место и являются, как правило, государственными учреждениями.</t>
-  </si>
-  <si>
     <t>центральный, банк, определение, что, такое</t>
   </si>
   <si>
@@ -1428,6 +1422,15 @@
   </si>
   <si>
     <t>маклер, определение, что, такое, кто</t>
+  </si>
+  <si>
+    <t>Что такое Центральный банк?</t>
+  </si>
+  <si>
+    <t>Центральный банк - главный государственный банк страны, основное звено денежно-кредитной системы государства; наделен особыми функциями, в особенности правом эмиссии денежных знаков и регулирования деятельности коммерческих банков. Центральный банк является "банком банков", органом, помогающим государству, правительству налаживать денежное обращение, управлять бюджетом. Основными функциями являются эмиссия денег, хранение золотовалютных резервов государства, кредитование и ведение счетов коммерческих банков и правительства, регулирование денежного обращения, контроль за деятельностью кредитных учреждений.</t>
+  </si>
+  <si>
+    <t>Центральный банк - это банк банков, главный государственный банк страны и основное звено денежно-кредитной системы государства.</t>
   </si>
 </sst>
 </file>
@@ -1810,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1880,1925 +1883,1925 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="D11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="D13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="D15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="300" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="D27" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D29" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="D30" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="D41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="375" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="D65" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="D67" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="D75" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>306</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>310</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>314</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="D79" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="D81" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="D89" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>356</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="D91" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="D92" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="D93" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="D94" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="D95" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="D96" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>387</v>
-      </c>
       <c r="D97" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="D98" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>389</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="D99" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>393</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="D100" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>397</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="D101" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="D102" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>405</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="D103" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C104" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="D104" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="D105" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>417</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>421</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="E106" s="2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="D109" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="D110" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="D111" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="D112" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>441</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="D113" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="D114" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="D115" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/data/minfin/33_questions.xlsx
+++ b/data/minfin/33_questions.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="465">
   <si>
     <t>id</t>
   </si>
@@ -1206,18 +1206,6 @@
   </si>
   <si>
     <t>чек, определение, что, такое</t>
-  </si>
-  <si>
-    <t>33.101</t>
-  </si>
-  <si>
-    <t>Что такое вексель?</t>
-  </si>
-  <si>
-    <t>Вексель – это ценная бумага, удостоверяющая ничем не обусловленное обязательство векселедателя (простой вексель) либо иного указанного в векселе плательщика (переводной вексель) выплатить по наступлении предусмотренного векселем срока полученные взаймы денежные суммы, отношения сторон по векселю регулируются законом о переводном и простом векселе. Закон Российской Федерации «О денежной системе Российской Федерации» (ст. 13) считает вексель платежным документом, используемым в безналичных расчетах. Россия придерживается «Единообразного вексельного закона», принятого в 1930 году в Женеве.</t>
-  </si>
-  <si>
-    <t>вексель, определение, что, такое</t>
   </si>
   <si>
     <t>33.102</t>
@@ -1811,10 +1799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L115"/>
+  <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100:XFD100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1888,13 +1876,13 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>17</v>
@@ -2636,7 +2624,7 @@
         <v>190</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>191</v>
@@ -2645,7 +2633,7 @@
         <v>191</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2925,7 +2913,7 @@
         <v>257</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>258</v>
@@ -2934,7 +2922,7 @@
         <v>258</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -3316,7 +3304,7 @@
         <v>347</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>348</v>
@@ -3325,7 +3313,7 @@
         <v>348</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="195" x14ac:dyDescent="0.25">
@@ -3367,7 +3355,7 @@
         <v>357</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>358</v>
@@ -3376,7 +3364,7 @@
         <v>358</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3532,7 +3520,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>394</v>
       </c>
@@ -3549,7 +3537,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>398</v>
       </c>
@@ -3566,7 +3554,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>402</v>
       </c>
@@ -3583,7 +3571,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>406</v>
       </c>
@@ -3600,7 +3588,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="104" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>410</v>
       </c>
@@ -3617,7 +3605,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>414</v>
       </c>
@@ -3634,58 +3622,58 @@
         <v>417</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>418</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="D106" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="D106" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E106" s="2" t="s">
+      <c r="B107" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="D107" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B107" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="C107" s="2" t="s">
+      <c r="B108" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="D107" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="D108" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D108" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>426</v>
       </c>
@@ -3702,7 +3690,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>430</v>
       </c>
@@ -3719,7 +3707,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>434</v>
       </c>
@@ -3736,7 +3724,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>438</v>
       </c>
@@ -3753,7 +3741,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>442</v>
       </c>
@@ -3770,7 +3758,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>446</v>
       </c>
@@ -3785,23 +3773,6 @@
       </c>
       <c r="E114" s="2" t="s">
         <v>449</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>
